--- a/tests/eindhoven-500/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto_OV_Fiets.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto_OV_Fiets.xlsx
@@ -394,10 +394,10 @@
         <v>26215.24171729188</v>
       </c>
       <c r="D2">
-        <v>45658.18713282702</v>
+        <v>45658.187132827</v>
       </c>
       <c r="E2">
-        <v>66063.87208316418</v>
+        <v>66063.87208316414</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -414,7 +414,7 @@
         <v>47244.89119807871</v>
       </c>
       <c r="E3">
-        <v>68735.85266493144</v>
+        <v>68735.85266493143</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -425,13 +425,13 @@
         <v>14362.54571592861</v>
       </c>
       <c r="C4">
-        <v>22437.9021881354</v>
+        <v>22437.90218813541</v>
       </c>
       <c r="D4">
-        <v>42227.27869842295</v>
+        <v>42227.27869842293</v>
       </c>
       <c r="E4">
-        <v>63131.89280942952</v>
+        <v>63131.89280942947</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -442,13 +442,13 @@
         <v>14362.54571592861</v>
       </c>
       <c r="C5">
-        <v>22437.9021881354</v>
+        <v>22437.90218813541</v>
       </c>
       <c r="D5">
-        <v>42227.27869842295</v>
+        <v>42227.27869842293</v>
       </c>
       <c r="E5">
-        <v>63131.89280942952</v>
+        <v>63131.89280942947</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -459,13 +459,13 @@
         <v>14362.54571592861</v>
       </c>
       <c r="C6">
-        <v>22437.9021881354</v>
+        <v>22437.90218813541</v>
       </c>
       <c r="D6">
-        <v>42227.27869842295</v>
+        <v>42227.27869842293</v>
       </c>
       <c r="E6">
-        <v>63131.89280942952</v>
+        <v>63131.89280942947</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>17531.64192886409</v>
+        <v>17531.64192886408</v>
       </c>
       <c r="C7">
-        <v>26200.85884733871</v>
+        <v>26200.85884733872</v>
       </c>
       <c r="D7">
-        <v>46011.10054008034</v>
+        <v>46011.10054008033</v>
       </c>
       <c r="E7">
-        <v>67003.71963872883</v>
+        <v>67003.71963872881</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>17531.64192886409</v>
+        <v>17531.64192886408</v>
       </c>
       <c r="C8">
-        <v>26200.85884733871</v>
+        <v>26200.85884733872</v>
       </c>
       <c r="D8">
-        <v>46011.10054008034</v>
+        <v>46011.10054008033</v>
       </c>
       <c r="E8">
-        <v>67003.71963872883</v>
+        <v>67003.71963872881</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -510,13 +510,13 @@
         <v>17213.87530786749</v>
       </c>
       <c r="C9">
-        <v>25525.93684766659</v>
+        <v>25525.93684766658</v>
       </c>
       <c r="D9">
         <v>44792.71873686691</v>
       </c>
       <c r="E9">
-        <v>65258.170819977</v>
+        <v>65258.17081997693</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>17531.64192886409</v>
+        <v>17531.64192886408</v>
       </c>
       <c r="C10">
-        <v>26200.85884733871</v>
+        <v>26200.85884733872</v>
       </c>
       <c r="D10">
-        <v>46011.10054008034</v>
+        <v>46011.10054008033</v>
       </c>
       <c r="E10">
-        <v>67003.71963872883</v>
+        <v>67003.71963872881</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>17531.64192886409</v>
+        <v>17531.64192886408</v>
       </c>
       <c r="C11">
-        <v>26200.85884733871</v>
+        <v>26200.85884733872</v>
       </c>
       <c r="D11">
-        <v>46011.10054008034</v>
+        <v>46011.10054008033</v>
       </c>
       <c r="E11">
-        <v>67003.71963872883</v>
+        <v>67003.71963872881</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -561,13 +561,13 @@
         <v>14362.54571592861</v>
       </c>
       <c r="C12">
-        <v>22437.9021881354</v>
+        <v>22437.90218813541</v>
       </c>
       <c r="D12">
-        <v>42227.27869842295</v>
+        <v>42227.27869842293</v>
       </c>
       <c r="E12">
-        <v>63131.89280942952</v>
+        <v>63131.89280942947</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -584,7 +584,7 @@
         <v>47244.89119807871</v>
       </c>
       <c r="E13">
-        <v>68735.85266493144</v>
+        <v>68735.85266493143</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -595,13 +595,13 @@
         <v>14362.54571592861</v>
       </c>
       <c r="C14">
-        <v>22437.9021881354</v>
+        <v>22437.90218813541</v>
       </c>
       <c r="D14">
-        <v>42227.27869842295</v>
+        <v>42227.27869842293</v>
       </c>
       <c r="E14">
-        <v>63131.89280942952</v>
+        <v>63131.89280942947</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -609,16 +609,16 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>17531.64192886409</v>
+        <v>17531.64192886408</v>
       </c>
       <c r="C15">
-        <v>26200.85884733871</v>
+        <v>26200.85884733872</v>
       </c>
       <c r="D15">
-        <v>46011.10054008034</v>
+        <v>46011.10054008033</v>
       </c>
       <c r="E15">
-        <v>67003.71963872883</v>
+        <v>67003.71963872881</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -629,13 +629,13 @@
         <v>17252.7766608425</v>
       </c>
       <c r="C16">
-        <v>25505.86829076498</v>
+        <v>25505.86829076497</v>
       </c>
       <c r="D16">
-        <v>44406.56417287185</v>
+        <v>44406.56417287184</v>
       </c>
       <c r="E16">
-        <v>64290.36422094294</v>
+        <v>64290.36422094296</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -646,13 +646,13 @@
         <v>14362.54571592861</v>
       </c>
       <c r="C17">
-        <v>22437.9021881354</v>
+        <v>22437.90218813541</v>
       </c>
       <c r="D17">
-        <v>42227.27869842295</v>
+        <v>42227.27869842293</v>
       </c>
       <c r="E17">
-        <v>63131.89280942952</v>
+        <v>63131.89280942947</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -669,7 +669,7 @@
         <v>47244.89119807871</v>
       </c>
       <c r="E18">
-        <v>68735.85266493144</v>
+        <v>68735.85266493143</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -680,13 +680,13 @@
         <v>17252.7766608425</v>
       </c>
       <c r="C19">
-        <v>25505.86829076498</v>
+        <v>25505.86829076497</v>
       </c>
       <c r="D19">
-        <v>44406.56417287185</v>
+        <v>44406.56417287184</v>
       </c>
       <c r="E19">
-        <v>64290.36422094294</v>
+        <v>64290.36422094296</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -697,13 +697,13 @@
         <v>17252.7766608425</v>
       </c>
       <c r="C20">
-        <v>25505.86829076498</v>
+        <v>25505.86829076497</v>
       </c>
       <c r="D20">
-        <v>44406.56417287185</v>
+        <v>44406.56417287184</v>
       </c>
       <c r="E20">
-        <v>64290.36422094294</v>
+        <v>64290.36422094296</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -714,13 +714,13 @@
         <v>17252.7766608425</v>
       </c>
       <c r="C21">
-        <v>25505.86829076498</v>
+        <v>25505.86829076497</v>
       </c>
       <c r="D21">
-        <v>44406.56417287185</v>
+        <v>44406.56417287184</v>
       </c>
       <c r="E21">
-        <v>64290.36422094294</v>
+        <v>64290.36422094296</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -731,13 +731,13 @@
         <v>20999.41665546015</v>
       </c>
       <c r="C22">
-        <v>31394.10533997313</v>
+        <v>31394.10533997314</v>
       </c>
       <c r="D22">
-        <v>53109.94649744884</v>
+        <v>53109.94649744886</v>
       </c>
       <c r="E22">
-        <v>75155.16470658635</v>
+        <v>75155.16470658632</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -751,10 +751,10 @@
         <v>26215.24171729188</v>
       </c>
       <c r="D23">
-        <v>45658.18713282702</v>
+        <v>45658.187132827</v>
       </c>
       <c r="E23">
-        <v>66063.87208316418</v>
+        <v>66063.87208316414</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -768,10 +768,10 @@
         <v>16735.02620451569</v>
       </c>
       <c r="D24">
-        <v>34920.28948505405</v>
+        <v>34920.28948505406</v>
       </c>
       <c r="E24">
-        <v>53316.41966661583</v>
+        <v>53316.41966661579</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -785,10 +785,10 @@
         <v>16735.02620451569</v>
       </c>
       <c r="D25">
-        <v>34920.28948505405</v>
+        <v>34920.28948505406</v>
       </c>
       <c r="E25">
-        <v>53316.41966661583</v>
+        <v>53316.41966661579</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -802,10 +802,10 @@
         <v>16735.02620451569</v>
       </c>
       <c r="D26">
-        <v>34920.28948505405</v>
+        <v>34920.28948505406</v>
       </c>
       <c r="E26">
-        <v>53316.41966661583</v>
+        <v>53316.41966661579</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -816,13 +816,13 @@
         <v>17163.47045331051</v>
       </c>
       <c r="C27">
-        <v>24709.1939615165</v>
+        <v>24709.19396151651</v>
       </c>
       <c r="D27">
-        <v>43594.23731677065</v>
+        <v>43594.23731677066</v>
       </c>
       <c r="E27">
-        <v>64297.94132176488</v>
+        <v>64297.94132176483</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -833,13 +833,13 @@
         <v>17163.47045331051</v>
       </c>
       <c r="C28">
-        <v>24709.1939615165</v>
+        <v>24709.19396151651</v>
       </c>
       <c r="D28">
-        <v>43594.23731677065</v>
+        <v>43594.23731677066</v>
       </c>
       <c r="E28">
-        <v>64297.94132176488</v>
+        <v>64297.94132176483</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -850,13 +850,13 @@
         <v>17163.47045331051</v>
       </c>
       <c r="C29">
-        <v>24709.1939615165</v>
+        <v>24709.19396151651</v>
       </c>
       <c r="D29">
-        <v>43594.23731677065</v>
+        <v>43594.23731677066</v>
       </c>
       <c r="E29">
-        <v>64297.94132176488</v>
+        <v>64297.94132176483</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -864,16 +864,16 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>28821.48610091644</v>
+        <v>28821.48610091645</v>
       </c>
       <c r="C30">
         <v>36863.42959427044</v>
       </c>
       <c r="D30">
-        <v>56525.64374799467</v>
+        <v>56525.64374799463</v>
       </c>
       <c r="E30">
-        <v>78594.67930936186</v>
+        <v>78594.67930936182</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -881,16 +881,16 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>28821.48610091644</v>
+        <v>28821.48610091645</v>
       </c>
       <c r="C31">
         <v>36863.42959427044</v>
       </c>
       <c r="D31">
-        <v>56525.64374799467</v>
+        <v>56525.64374799463</v>
       </c>
       <c r="E31">
-        <v>78594.67930936186</v>
+        <v>78594.67930936182</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -904,10 +904,10 @@
         <v>37670.06417368236</v>
       </c>
       <c r="D32">
-        <v>57730.60395610445</v>
+        <v>57730.60395610444</v>
       </c>
       <c r="E32">
-        <v>79959.24599984157</v>
+        <v>79959.24599984159</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -915,16 +915,16 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>28821.48610091644</v>
+        <v>28821.48610091645</v>
       </c>
       <c r="C33">
         <v>36863.42959427044</v>
       </c>
       <c r="D33">
-        <v>56525.64374799467</v>
+        <v>56525.64374799463</v>
       </c>
       <c r="E33">
-        <v>78594.67930936186</v>
+        <v>78594.67930936182</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -932,16 +932,16 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>33975.00770881135</v>
+        <v>33975.00770881137</v>
       </c>
       <c r="C34">
-        <v>42165.07959340364</v>
+        <v>42165.07959340366</v>
       </c>
       <c r="D34">
-        <v>61919.37130461376</v>
+        <v>61919.37130461373</v>
       </c>
       <c r="E34">
-        <v>83942.34244639178</v>
+        <v>83942.34244639185</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -949,13 +949,13 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>35252.28553953719</v>
+        <v>35252.2855395372</v>
       </c>
       <c r="C35">
         <v>43575.01374658533</v>
       </c>
       <c r="D35">
-        <v>63263.35691405715</v>
+        <v>63263.35691405714</v>
       </c>
       <c r="E35">
         <v>85018.41665635323</v>
@@ -969,13 +969,13 @@
         <v>25066.37486359805</v>
       </c>
       <c r="C36">
-        <v>33052.94709342966</v>
+        <v>33052.94709342967</v>
       </c>
       <c r="D36">
         <v>53519.79915538197</v>
       </c>
       <c r="E36">
-        <v>76443.7077861233</v>
+        <v>76443.70778612333</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -986,13 +986,13 @@
         <v>29538.43178813287</v>
       </c>
       <c r="C37">
-        <v>37609.76330046534</v>
+        <v>37609.76330046535</v>
       </c>
       <c r="D37">
-        <v>56961.63281130598</v>
+        <v>56961.63281130599</v>
       </c>
       <c r="E37">
-        <v>78846.86627586762</v>
+        <v>78846.86627586761</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1003,13 +1003,13 @@
         <v>29538.43178813287</v>
       </c>
       <c r="C38">
-        <v>37609.76330046534</v>
+        <v>37609.76330046535</v>
       </c>
       <c r="D38">
-        <v>56961.63281130598</v>
+        <v>56961.63281130599</v>
       </c>
       <c r="E38">
-        <v>78846.86627586762</v>
+        <v>78846.86627586761</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1020,13 +1020,13 @@
         <v>33549.35989322147</v>
       </c>
       <c r="C39">
-        <v>41389.45798759691</v>
+        <v>41389.45798759694</v>
       </c>
       <c r="D39">
-        <v>60752.32997028274</v>
+        <v>60752.32997028278</v>
       </c>
       <c r="E39">
-        <v>82685.59949229077</v>
+        <v>82685.59949229076</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1034,13 +1034,13 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>35252.28553953719</v>
+        <v>35252.2855395372</v>
       </c>
       <c r="C40">
         <v>43575.01374658533</v>
       </c>
       <c r="D40">
-        <v>63263.35691405715</v>
+        <v>63263.35691405714</v>
       </c>
       <c r="E40">
         <v>85018.41665635323</v>
@@ -1051,13 +1051,13 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>35252.28553953719</v>
+        <v>35252.2855395372</v>
       </c>
       <c r="C41">
         <v>43575.01374658533</v>
       </c>
       <c r="D41">
-        <v>63263.35691405715</v>
+        <v>63263.35691405714</v>
       </c>
       <c r="E41">
         <v>85018.41665635323</v>
@@ -1074,10 +1074,10 @@
         <v>34921.21579936139</v>
       </c>
       <c r="D42">
-        <v>55186.88971562253</v>
+        <v>55186.88971562254</v>
       </c>
       <c r="E42">
-        <v>77857.79270010706</v>
+        <v>77857.79270010711</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1091,10 +1091,10 @@
         <v>35746.6251549939</v>
       </c>
       <c r="D43">
-        <v>56423.52480291261</v>
+        <v>56423.52480291265</v>
       </c>
       <c r="E43">
-        <v>79254.24467948575</v>
+        <v>79254.24467948578</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1105,13 +1105,13 @@
         <v>25134.58414121721</v>
       </c>
       <c r="C44">
-        <v>34178.37251740519</v>
+        <v>34178.37251740522</v>
       </c>
       <c r="D44">
         <v>55571.90678757361</v>
       </c>
       <c r="E44">
-        <v>78705.87529323404</v>
+        <v>78705.87529323401</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1119,16 +1119,16 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>24241.80388322461</v>
+        <v>24241.80388322462</v>
       </c>
       <c r="C45">
-        <v>32243.77249861121</v>
+        <v>32243.7724986112</v>
       </c>
       <c r="D45">
-        <v>52622.79440281353</v>
+        <v>52622.79440281352</v>
       </c>
       <c r="E45">
-        <v>75301.41752278474</v>
+        <v>75301.41752278472</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1136,16 +1136,16 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>29977.82888783973</v>
+        <v>29977.82888783974</v>
       </c>
       <c r="C46">
-        <v>38424.71450940618</v>
+        <v>38424.71450940619</v>
       </c>
       <c r="D46">
-        <v>58156.474910913</v>
+        <v>58156.47491091301</v>
       </c>
       <c r="E46">
-        <v>80205.20853663461</v>
+        <v>80205.2085366346</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1156,7 +1156,7 @@
         <v>25419.54956424891</v>
       </c>
       <c r="C47">
-        <v>33805.94761171142</v>
+        <v>33805.94761171144</v>
       </c>
       <c r="D47">
         <v>54725.23440240205</v>
@@ -1170,16 +1170,16 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>24634.38621629111</v>
+        <v>24634.38621629112</v>
       </c>
       <c r="C48">
         <v>33035.82122157058</v>
       </c>
       <c r="D48">
-        <v>53852.22621322631</v>
+        <v>53852.22621322628</v>
       </c>
       <c r="E48">
-        <v>76740.23362486159</v>
+        <v>76740.23362486156</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1193,7 +1193,7 @@
         <v>27233.84201224393</v>
       </c>
       <c r="D49">
-        <v>41909.92957326573</v>
+        <v>41909.92957326575</v>
       </c>
       <c r="E49">
         <v>56939.84517748422</v>
@@ -1210,7 +1210,7 @@
         <v>27949.46123363859</v>
       </c>
       <c r="D50">
-        <v>43062.73829368981</v>
+        <v>43062.7382936898</v>
       </c>
       <c r="E50">
         <v>58845.74949226114</v>
@@ -1224,13 +1224,13 @@
         <v>14627.28880350129</v>
       </c>
       <c r="C51">
-        <v>21771.35534595918</v>
+        <v>21771.35534595919</v>
       </c>
       <c r="D51">
         <v>36996.51403538416</v>
       </c>
       <c r="E51">
-        <v>51584.40356544777</v>
+        <v>51584.40356544775</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1241,13 +1241,13 @@
         <v>15606.80953431796</v>
       </c>
       <c r="C52">
-        <v>23288.69282000658</v>
+        <v>23288.69282000657</v>
       </c>
       <c r="D52">
-        <v>38985.42324854695</v>
+        <v>38985.42324854697</v>
       </c>
       <c r="E52">
-        <v>54489.28911969593</v>
+        <v>54489.28911969595</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1261,10 +1261,10 @@
         <v>22475.6802189118</v>
       </c>
       <c r="D53">
-        <v>37523.01239200411</v>
+        <v>37523.01239200412</v>
       </c>
       <c r="E53">
-        <v>52244.29390058768</v>
+        <v>52244.29390058769</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1272,16 +1272,16 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>14336.04004021868</v>
+        <v>14336.04004021869</v>
       </c>
       <c r="C54">
         <v>21183.02576234621</v>
       </c>
       <c r="D54">
-        <v>35989.02158993582</v>
+        <v>35989.0215899358</v>
       </c>
       <c r="E54">
-        <v>50027.58919647161</v>
+        <v>50027.58919647158</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1295,7 +1295,7 @@
         <v>27949.46123363859</v>
       </c>
       <c r="D55">
-        <v>43062.73829368981</v>
+        <v>43062.7382936898</v>
       </c>
       <c r="E55">
         <v>58845.74949226114</v>
@@ -1315,7 +1315,7 @@
         <v>44957.41720530039</v>
       </c>
       <c r="E56">
-        <v>61732.13051494233</v>
+        <v>61732.13051494231</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1326,13 +1326,13 @@
         <v>14234.28438267126</v>
       </c>
       <c r="C57">
-        <v>21504.97591923887</v>
+        <v>21504.97591923888</v>
       </c>
       <c r="D57">
-        <v>37873.06404780269</v>
+        <v>37873.06404780268</v>
       </c>
       <c r="E57">
-        <v>54319.71294131424</v>
+        <v>54319.71294131427</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1340,16 +1340,16 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>19704.07994771068</v>
+        <v>19704.07994771069</v>
       </c>
       <c r="C58">
         <v>26577.79690873996</v>
       </c>
       <c r="D58">
-        <v>43054.82965010697</v>
+        <v>43054.82965010696</v>
       </c>
       <c r="E58">
-        <v>61752.39466567958</v>
+        <v>61752.39466567954</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1357,16 +1357,16 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>19704.07994771068</v>
+        <v>19704.07994771069</v>
       </c>
       <c r="C59">
         <v>26577.79690873996</v>
       </c>
       <c r="D59">
-        <v>43054.82965010697</v>
+        <v>43054.82965010696</v>
       </c>
       <c r="E59">
-        <v>61752.39466567958</v>
+        <v>61752.39466567954</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1380,10 +1380,10 @@
         <v>17424.01432281992</v>
       </c>
       <c r="D60">
-        <v>33951.64008658309</v>
+        <v>33951.64008658312</v>
       </c>
       <c r="E60">
-        <v>51001.88950077862</v>
+        <v>51001.88950077863</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1397,10 +1397,10 @@
         <v>17424.01432281992</v>
       </c>
       <c r="D61">
-        <v>33951.64008658309</v>
+        <v>33951.64008658312</v>
       </c>
       <c r="E61">
-        <v>51001.88950077862</v>
+        <v>51001.88950077863</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1408,13 +1408,13 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>5770.792598504801</v>
+        <v>5770.7925985048</v>
       </c>
       <c r="C62">
         <v>10768.26795181618</v>
       </c>
       <c r="D62">
-        <v>28662.67676641057</v>
+        <v>28662.67676641059</v>
       </c>
       <c r="E62">
         <v>47076.71715723653</v>
@@ -1425,13 +1425,13 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>5770.792598504801</v>
+        <v>5770.7925985048</v>
       </c>
       <c r="C63">
         <v>10768.26795181618</v>
       </c>
       <c r="D63">
-        <v>28662.67676641057</v>
+        <v>28662.67676641059</v>
       </c>
       <c r="E63">
         <v>47076.71715723653</v>
@@ -1448,10 +1448,10 @@
         <v>8933.253523218616</v>
       </c>
       <c r="D64">
-        <v>26379.31601386329</v>
+        <v>26379.31601386327</v>
       </c>
       <c r="E64">
-        <v>44045.88351181716</v>
+        <v>44045.88351181712</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1465,10 +1465,10 @@
         <v>8933.253523218616</v>
       </c>
       <c r="D65">
-        <v>26379.31601386329</v>
+        <v>26379.31601386327</v>
       </c>
       <c r="E65">
-        <v>44045.88351181716</v>
+        <v>44045.88351181712</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1482,10 +1482,10 @@
         <v>27799.37767632345</v>
       </c>
       <c r="D66">
-        <v>49558.96969692646</v>
+        <v>49558.96969692649</v>
       </c>
       <c r="E66">
-        <v>73297.06913551118</v>
+        <v>73297.06913551121</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1496,10 +1496,10 @@
         <v>19716.04542261679</v>
       </c>
       <c r="C67">
-        <v>28550.71216537779</v>
+        <v>28550.7121653778</v>
       </c>
       <c r="D67">
-        <v>50816.90328755469</v>
+        <v>50816.90328755473</v>
       </c>
       <c r="E67">
         <v>74831.23989417581</v>
@@ -1516,10 +1516,10 @@
         <v>27799.37767632345</v>
       </c>
       <c r="D68">
-        <v>49558.96969692646</v>
+        <v>49558.96969692649</v>
       </c>
       <c r="E68">
-        <v>73297.06913551118</v>
+        <v>73297.06913551121</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1530,10 +1530,10 @@
         <v>19716.04542261679</v>
       </c>
       <c r="C69">
-        <v>28550.71216537779</v>
+        <v>28550.7121653778</v>
       </c>
       <c r="D69">
-        <v>50816.90328755469</v>
+        <v>50816.90328755473</v>
       </c>
       <c r="E69">
         <v>74831.23989417581</v>
@@ -1547,10 +1547,10 @@
         <v>19716.04542261679</v>
       </c>
       <c r="C70">
-        <v>28550.71216537779</v>
+        <v>28550.7121653778</v>
       </c>
       <c r="D70">
-        <v>50816.90328755469</v>
+        <v>50816.90328755473</v>
       </c>
       <c r="E70">
         <v>74831.23989417581</v>
@@ -1567,10 +1567,10 @@
         <v>31164.02892125486</v>
       </c>
       <c r="D71">
-        <v>54090.53549333353</v>
+        <v>54090.53549333354</v>
       </c>
       <c r="E71">
-        <v>78104.40835004322</v>
+        <v>78104.40835004323</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1581,10 +1581,10 @@
         <v>19716.04542261679</v>
       </c>
       <c r="C72">
-        <v>28550.71216537779</v>
+        <v>28550.7121653778</v>
       </c>
       <c r="D72">
-        <v>50816.90328755469</v>
+        <v>50816.90328755473</v>
       </c>
       <c r="E72">
         <v>74831.23989417581</v>
@@ -1598,10 +1598,10 @@
         <v>19716.04542261679</v>
       </c>
       <c r="C73">
-        <v>28550.71216537779</v>
+        <v>28550.7121653778</v>
       </c>
       <c r="D73">
-        <v>50816.90328755469</v>
+        <v>50816.90328755473</v>
       </c>
       <c r="E73">
         <v>74831.23989417581</v>
@@ -1615,10 +1615,10 @@
         <v>19716.04542261679</v>
       </c>
       <c r="C74">
-        <v>28550.71216537779</v>
+        <v>28550.7121653778</v>
       </c>
       <c r="D74">
-        <v>50816.90328755469</v>
+        <v>50816.90328755473</v>
       </c>
       <c r="E74">
         <v>74831.23989417581</v>
@@ -1629,16 +1629,16 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>13711.05614445651</v>
+        <v>13711.0561444565</v>
       </c>
       <c r="C75">
-        <v>20566.15199325819</v>
+        <v>20566.15199325818</v>
       </c>
       <c r="D75">
-        <v>40883.91576833461</v>
+        <v>40883.9157683346</v>
       </c>
       <c r="E75">
-        <v>64125.3117311377</v>
+        <v>64125.31173113776</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1649,10 +1649,10 @@
         <v>19716.04542261679</v>
       </c>
       <c r="C76">
-        <v>28550.71216537779</v>
+        <v>28550.7121653778</v>
       </c>
       <c r="D76">
-        <v>50816.90328755469</v>
+        <v>50816.90328755473</v>
       </c>
       <c r="E76">
         <v>74831.23989417581</v>
@@ -1663,16 +1663,16 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>18689.78653727447</v>
+        <v>18689.78653727446</v>
       </c>
       <c r="C77">
         <v>27300.03019138566</v>
       </c>
       <c r="D77">
-        <v>49800.22643066867</v>
+        <v>49800.22643066869</v>
       </c>
       <c r="E77">
-        <v>74147.83694081474</v>
+        <v>74147.83694081477</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1680,16 +1680,16 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>18689.78653727447</v>
+        <v>18689.78653727446</v>
       </c>
       <c r="C78">
         <v>27300.03019138566</v>
       </c>
       <c r="D78">
-        <v>49800.22643066867</v>
+        <v>49800.22643066869</v>
       </c>
       <c r="E78">
-        <v>74147.83694081474</v>
+        <v>74147.83694081477</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1697,16 +1697,16 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>18689.78653727447</v>
+        <v>18689.78653727446</v>
       </c>
       <c r="C79">
         <v>27300.03019138566</v>
       </c>
       <c r="D79">
-        <v>49800.22643066867</v>
+        <v>49800.22643066869</v>
       </c>
       <c r="E79">
-        <v>74147.83694081474</v>
+        <v>74147.83694081477</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1714,16 +1714,16 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>18689.78653727447</v>
+        <v>18689.78653727446</v>
       </c>
       <c r="C80">
         <v>27300.03019138566</v>
       </c>
       <c r="D80">
-        <v>49800.22643066867</v>
+        <v>49800.22643066869</v>
       </c>
       <c r="E80">
-        <v>74147.83694081474</v>
+        <v>74147.83694081477</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1731,16 +1731,16 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>28041.46396399088</v>
+        <v>28041.46396399087</v>
       </c>
       <c r="C81">
         <v>36817.60885757238</v>
       </c>
       <c r="D81">
-        <v>57066.71020939525</v>
+        <v>57066.71020939524</v>
       </c>
       <c r="E81">
-        <v>78964.62410251312</v>
+        <v>78964.62410251316</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1748,16 +1748,16 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>28041.46396399088</v>
+        <v>28041.46396399087</v>
       </c>
       <c r="C82">
         <v>36817.60885757238</v>
       </c>
       <c r="D82">
-        <v>57066.71020939525</v>
+        <v>57066.71020939524</v>
       </c>
       <c r="E82">
-        <v>78964.62410251312</v>
+        <v>78964.62410251316</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1768,13 +1768,13 @@
         <v>17134.74673002911</v>
       </c>
       <c r="C83">
-        <v>24161.23704484351</v>
+        <v>24161.2370448435</v>
       </c>
       <c r="D83">
-        <v>44154.46444155759</v>
+        <v>44154.46444155757</v>
       </c>
       <c r="E83">
-        <v>66455.12722755264</v>
+        <v>66455.12722755267</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1785,13 +1785,13 @@
         <v>17134.74673002911</v>
       </c>
       <c r="C84">
-        <v>24161.23704484351</v>
+        <v>24161.2370448435</v>
       </c>
       <c r="D84">
-        <v>44154.46444155759</v>
+        <v>44154.46444155757</v>
       </c>
       <c r="E84">
-        <v>66455.12722755264</v>
+        <v>66455.12722755267</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1799,13 +1799,13 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>26942.38826677894</v>
+        <v>26942.38826677893</v>
       </c>
       <c r="C85">
-        <v>35570.51828149407</v>
+        <v>35570.51828149406</v>
       </c>
       <c r="D85">
-        <v>55574.16948817649</v>
+        <v>55574.16948817644</v>
       </c>
       <c r="E85">
         <v>77408.29381061433</v>
@@ -1816,13 +1816,13 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>26942.38826677894</v>
+        <v>26942.38826677893</v>
       </c>
       <c r="C86">
-        <v>35570.51828149407</v>
+        <v>35570.51828149406</v>
       </c>
       <c r="D86">
-        <v>55574.16948817649</v>
+        <v>55574.16948817644</v>
       </c>
       <c r="E86">
         <v>77408.29381061433</v>
@@ -1836,13 +1836,13 @@
         <v>25805.8319306646</v>
       </c>
       <c r="C87">
-        <v>34976.33423677225</v>
+        <v>34976.33423677227</v>
       </c>
       <c r="D87">
-        <v>56265.12868951262</v>
+        <v>56265.12868951266</v>
       </c>
       <c r="E87">
-        <v>78639.44588810597</v>
+        <v>78639.44588810593</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1853,13 +1853,13 @@
         <v>25805.8319306646</v>
       </c>
       <c r="C88">
-        <v>34976.33423677225</v>
+        <v>34976.33423677227</v>
       </c>
       <c r="D88">
-        <v>56265.12868951262</v>
+        <v>56265.12868951266</v>
       </c>
       <c r="E88">
-        <v>78639.44588810597</v>
+        <v>78639.44588810593</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1870,13 +1870,13 @@
         <v>25805.8319306646</v>
       </c>
       <c r="C89">
-        <v>34976.33423677225</v>
+        <v>34976.33423677227</v>
       </c>
       <c r="D89">
-        <v>56265.12868951262</v>
+        <v>56265.12868951266</v>
       </c>
       <c r="E89">
-        <v>78639.44588810597</v>
+        <v>78639.44588810593</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1887,13 +1887,13 @@
         <v>55671.27047905802</v>
       </c>
       <c r="C90">
-        <v>63808.15887353181</v>
+        <v>63808.15887353183</v>
       </c>
       <c r="D90">
-        <v>78543.05514261925</v>
+        <v>78543.05514261928</v>
       </c>
       <c r="E90">
-        <v>94766.36432249834</v>
+        <v>94766.36432249838</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1904,13 +1904,13 @@
         <v>55671.27047905802</v>
       </c>
       <c r="C91">
-        <v>63808.15887353181</v>
+        <v>63808.15887353183</v>
       </c>
       <c r="D91">
-        <v>78543.05514261925</v>
+        <v>78543.05514261928</v>
       </c>
       <c r="E91">
-        <v>94766.36432249834</v>
+        <v>94766.36432249838</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1921,13 +1921,13 @@
         <v>55671.27047905802</v>
       </c>
       <c r="C92">
-        <v>63808.15887353181</v>
+        <v>63808.15887353183</v>
       </c>
       <c r="D92">
-        <v>78543.05514261925</v>
+        <v>78543.05514261928</v>
       </c>
       <c r="E92">
-        <v>94766.36432249834</v>
+        <v>94766.36432249838</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1938,13 +1938,13 @@
         <v>55671.27047905802</v>
       </c>
       <c r="C93">
-        <v>63808.15887353181</v>
+        <v>63808.15887353183</v>
       </c>
       <c r="D93">
-        <v>78543.05514261925</v>
+        <v>78543.05514261928</v>
       </c>
       <c r="E93">
-        <v>94766.36432249834</v>
+        <v>94766.36432249838</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1952,13 +1952,13 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>56618.71483137693</v>
+        <v>56618.71483137694</v>
       </c>
       <c r="C94">
-        <v>65287.36276048533</v>
+        <v>65287.36276048532</v>
       </c>
       <c r="D94">
-        <v>79707.1854529953</v>
+        <v>79707.18545299531</v>
       </c>
       <c r="E94">
         <v>95410.79438501342</v>
@@ -1972,13 +1972,13 @@
         <v>55671.27047905802</v>
       </c>
       <c r="C95">
-        <v>63808.15887353181</v>
+        <v>63808.15887353183</v>
       </c>
       <c r="D95">
-        <v>78543.05514261925</v>
+        <v>78543.05514261928</v>
       </c>
       <c r="E95">
-        <v>94766.36432249834</v>
+        <v>94766.36432249838</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -1989,13 +1989,13 @@
         <v>55671.27047905802</v>
       </c>
       <c r="C96">
-        <v>63808.15887353181</v>
+        <v>63808.15887353183</v>
       </c>
       <c r="D96">
-        <v>78543.05514261925</v>
+        <v>78543.05514261928</v>
       </c>
       <c r="E96">
-        <v>94766.36432249834</v>
+        <v>94766.36432249838</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2006,13 +2006,13 @@
         <v>55671.27047905802</v>
       </c>
       <c r="C97">
-        <v>63808.15887353181</v>
+        <v>63808.15887353183</v>
       </c>
       <c r="D97">
-        <v>78543.05514261925</v>
+        <v>78543.05514261928</v>
       </c>
       <c r="E97">
-        <v>94766.36432249834</v>
+        <v>94766.36432249838</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2020,16 +2020,16 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>53352.55113591821</v>
+        <v>53352.55113591822</v>
       </c>
       <c r="C98">
-        <v>62367.68191157867</v>
+        <v>62367.68191157864</v>
       </c>
       <c r="D98">
         <v>78639.93695329917</v>
       </c>
       <c r="E98">
-        <v>95092.84145603397</v>
+        <v>95092.84145603402</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2037,16 +2037,16 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>53352.55113591821</v>
+        <v>53352.55113591822</v>
       </c>
       <c r="C99">
-        <v>62367.68191157867</v>
+        <v>62367.68191157864</v>
       </c>
       <c r="D99">
         <v>78639.93695329917</v>
       </c>
       <c r="E99">
-        <v>95092.84145603397</v>
+        <v>95092.84145603402</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2054,16 +2054,16 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>53168.17485756663</v>
+        <v>53168.17485756658</v>
       </c>
       <c r="C100">
-        <v>61438.16146606104</v>
+        <v>61438.16146606102</v>
       </c>
       <c r="D100">
-        <v>77376.83584990261</v>
+        <v>77376.83584990267</v>
       </c>
       <c r="E100">
-        <v>94188.42899449379</v>
+        <v>94188.42899449381</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2071,16 +2071,16 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>53168.17485756663</v>
+        <v>53168.17485756658</v>
       </c>
       <c r="C101">
-        <v>61438.16146606104</v>
+        <v>61438.16146606102</v>
       </c>
       <c r="D101">
-        <v>77376.83584990261</v>
+        <v>77376.83584990267</v>
       </c>
       <c r="E101">
-        <v>94188.42899449379</v>
+        <v>94188.42899449381</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2088,16 +2088,16 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>53168.17485756663</v>
+        <v>53168.17485756658</v>
       </c>
       <c r="C102">
-        <v>61438.16146606104</v>
+        <v>61438.16146606102</v>
       </c>
       <c r="D102">
-        <v>77376.83584990261</v>
+        <v>77376.83584990267</v>
       </c>
       <c r="E102">
-        <v>94188.42899449379</v>
+        <v>94188.42899449381</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2105,16 +2105,16 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>50510.10202240357</v>
+        <v>50510.10202240358</v>
       </c>
       <c r="C103">
         <v>59920.0808247051</v>
       </c>
       <c r="D103">
-        <v>77169.44129434969</v>
+        <v>77169.44129434973</v>
       </c>
       <c r="E103">
-        <v>94109.08313674935</v>
+        <v>94109.08313674937</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2122,16 +2122,16 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>50510.10202240357</v>
+        <v>50510.10202240358</v>
       </c>
       <c r="C104">
         <v>59920.0808247051</v>
       </c>
       <c r="D104">
-        <v>77169.44129434969</v>
+        <v>77169.44129434973</v>
       </c>
       <c r="E104">
-        <v>94109.08313674935</v>
+        <v>94109.08313674937</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2142,13 +2142,13 @@
         <v>50834.06220371055</v>
       </c>
       <c r="C105">
-        <v>59905.70820628023</v>
+        <v>59905.70820628024</v>
       </c>
       <c r="D105">
-        <v>77253.09042602248</v>
+        <v>77253.09042602249</v>
       </c>
       <c r="E105">
-        <v>94429.77359431441</v>
+        <v>94429.77359431445</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2156,7 +2156,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>51672.85064188018</v>
+        <v>51672.8506418802</v>
       </c>
       <c r="C106">
         <v>61995.83515770097</v>
@@ -2165,7 +2165,7 @@
         <v>79514.84271464156</v>
       </c>
       <c r="E106">
-        <v>95957.53892513771</v>
+        <v>95957.53892513773</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2173,7 +2173,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>51672.85064188018</v>
+        <v>51672.8506418802</v>
       </c>
       <c r="C107">
         <v>61995.83515770097</v>
@@ -2182,7 +2182,7 @@
         <v>79514.84271464156</v>
       </c>
       <c r="E107">
-        <v>95957.53892513771</v>
+        <v>95957.53892513773</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2190,16 +2190,16 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>51943.51241725391</v>
+        <v>51943.51241725392</v>
       </c>
       <c r="C108">
-        <v>61935.53642627855</v>
+        <v>61935.53642627852</v>
       </c>
       <c r="D108">
-        <v>79566.6664911542</v>
+        <v>79566.66649115419</v>
       </c>
       <c r="E108">
-        <v>96232.60774845514</v>
+        <v>96232.60774845518</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2207,16 +2207,16 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>50121.46628308314</v>
+        <v>50121.46628308312</v>
       </c>
       <c r="C109">
-        <v>59424.62187347123</v>
+        <v>59424.62187347125</v>
       </c>
       <c r="D109">
-        <v>76560.93727936778</v>
+        <v>76560.93727936773</v>
       </c>
       <c r="E109">
-        <v>93556.80959474156</v>
+        <v>93556.80959474167</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2224,16 +2224,16 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>50121.46628308314</v>
+        <v>50121.46628308312</v>
       </c>
       <c r="C110">
-        <v>59424.62187347123</v>
+        <v>59424.62187347125</v>
       </c>
       <c r="D110">
-        <v>76560.93727936778</v>
+        <v>76560.93727936773</v>
       </c>
       <c r="E110">
-        <v>93556.80959474156</v>
+        <v>93556.80959474167</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2241,16 +2241,16 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>50121.46628308314</v>
+        <v>50121.46628308312</v>
       </c>
       <c r="C111">
-        <v>59424.62187347123</v>
+        <v>59424.62187347125</v>
       </c>
       <c r="D111">
-        <v>76560.93727936778</v>
+        <v>76560.93727936773</v>
       </c>
       <c r="E111">
-        <v>93556.80959474156</v>
+        <v>93556.80959474167</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2258,16 +2258,16 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>51219.51208423291</v>
+        <v>51219.5120842329</v>
       </c>
       <c r="C112">
-        <v>60782.57159531079</v>
+        <v>60782.57159531076</v>
       </c>
       <c r="D112">
-        <v>77801.51079317054</v>
+        <v>77801.51079317053</v>
       </c>
       <c r="E112">
-        <v>94464.18244376651</v>
+        <v>94464.18244376653</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2275,16 +2275,16 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>48853.27391991738</v>
+        <v>48853.27391991737</v>
       </c>
       <c r="C113">
-        <v>58092.3710534856</v>
+        <v>58092.37105348559</v>
       </c>
       <c r="D113">
-        <v>75701.6419753464</v>
+        <v>75701.64197534643</v>
       </c>
       <c r="E113">
-        <v>93057.26897438841</v>
+        <v>93057.26897438835</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2292,13 +2292,13 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>49418.08446614266</v>
+        <v>49418.08446614264</v>
       </c>
       <c r="C114">
-        <v>59121.91758139791</v>
+        <v>59121.91758139787</v>
       </c>
       <c r="D114">
-        <v>76924.87228566306</v>
+        <v>76924.87228566305</v>
       </c>
       <c r="E114">
         <v>94057.58128430204</v>
@@ -2309,16 +2309,16 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>51219.51208423291</v>
+        <v>51219.5120842329</v>
       </c>
       <c r="C115">
-        <v>60782.57159531079</v>
+        <v>60782.57159531076</v>
       </c>
       <c r="D115">
-        <v>77801.51079317054</v>
+        <v>77801.51079317053</v>
       </c>
       <c r="E115">
-        <v>94464.18244376651</v>
+        <v>94464.18244376653</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2326,16 +2326,16 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>51219.51208423291</v>
+        <v>51219.5120842329</v>
       </c>
       <c r="C116">
-        <v>60782.57159531079</v>
+        <v>60782.57159531076</v>
       </c>
       <c r="D116">
-        <v>77801.51079317054</v>
+        <v>77801.51079317053</v>
       </c>
       <c r="E116">
-        <v>94464.18244376651</v>
+        <v>94464.18244376653</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2343,16 +2343,16 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>48853.27391991738</v>
+        <v>48853.27391991737</v>
       </c>
       <c r="C117">
-        <v>58092.3710534856</v>
+        <v>58092.37105348559</v>
       </c>
       <c r="D117">
-        <v>75701.6419753464</v>
+        <v>75701.64197534643</v>
       </c>
       <c r="E117">
-        <v>93057.26897438841</v>
+        <v>93057.26897438835</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2360,16 +2360,16 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>50000.62644630546</v>
+        <v>50000.62644630545</v>
       </c>
       <c r="C118">
         <v>60163.69044612739</v>
       </c>
       <c r="D118">
-        <v>78127.47158522005</v>
+        <v>78127.47158522002</v>
       </c>
       <c r="E118">
-        <v>95004.59408588418</v>
+        <v>95004.59408588419</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2377,16 +2377,16 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>46892.19601496578</v>
+        <v>46892.19601496577</v>
       </c>
       <c r="C119">
-        <v>55900.65052618759</v>
+        <v>55900.65052618757</v>
       </c>
       <c r="D119">
-        <v>73700.08749946057</v>
+        <v>73700.08749946054</v>
       </c>
       <c r="E119">
-        <v>91648.99538502051</v>
+        <v>91648.99538502053</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2394,13 +2394,13 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>53557.39489846143</v>
+        <v>53557.39489846144</v>
       </c>
       <c r="C120">
-        <v>62279.54394895965</v>
+        <v>62279.54394895964</v>
       </c>
       <c r="D120">
-        <v>78026.37580094892</v>
+        <v>78026.37580094891</v>
       </c>
       <c r="E120">
         <v>94434.15442232539</v>
@@ -2411,13 +2411,13 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>53557.39489846143</v>
+        <v>53557.39489846144</v>
       </c>
       <c r="C121">
-        <v>62279.54394895965</v>
+        <v>62279.54394895964</v>
       </c>
       <c r="D121">
-        <v>78026.37580094892</v>
+        <v>78026.37580094891</v>
       </c>
       <c r="E121">
         <v>94434.15442232539</v>
@@ -2434,10 +2434,10 @@
         <v>60611.42516346395</v>
       </c>
       <c r="D122">
-        <v>76974.15948132555</v>
+        <v>76974.15948132557</v>
       </c>
       <c r="E122">
-        <v>93611.958090302</v>
+        <v>93611.95809030198</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2451,10 +2451,10 @@
         <v>60611.42516346395</v>
       </c>
       <c r="D123">
-        <v>76974.15948132555</v>
+        <v>76974.15948132557</v>
       </c>
       <c r="E123">
-        <v>93611.958090302</v>
+        <v>93611.95809030198</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2468,10 +2468,10 @@
         <v>60611.42516346395</v>
       </c>
       <c r="D124">
-        <v>76974.15948132555</v>
+        <v>76974.15948132557</v>
       </c>
       <c r="E124">
-        <v>93611.958090302</v>
+        <v>93611.95809030198</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2479,13 +2479,13 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>50835.03001562023</v>
+        <v>50835.03001562024</v>
       </c>
       <c r="C125">
         <v>60227.61479886242</v>
       </c>
       <c r="D125">
-        <v>76570.23111818203</v>
+        <v>76570.231118182</v>
       </c>
       <c r="E125">
         <v>92967.07063625634</v>
@@ -2496,16 +2496,16 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>51410.57282470285</v>
+        <v>51410.57282470284</v>
       </c>
       <c r="C126">
-        <v>61273.32020349048</v>
+        <v>61273.32020349046</v>
       </c>
       <c r="D126">
-        <v>77787.59993319023</v>
+        <v>77787.59993319021</v>
       </c>
       <c r="E126">
-        <v>93984.18964665027</v>
+        <v>93984.18964665028</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2513,16 +2513,16 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>53818.73268895074</v>
+        <v>53818.73268895073</v>
       </c>
       <c r="C127">
-        <v>63895.53330699824</v>
+        <v>63895.53330699828</v>
       </c>
       <c r="D127">
-        <v>79890.18943855066</v>
+        <v>79890.1894385507</v>
       </c>
       <c r="E127">
-        <v>95657.02866662733</v>
+        <v>95657.02866662735</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2530,16 +2530,16 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>53208.48429816365</v>
+        <v>53208.48429816363</v>
       </c>
       <c r="C128">
-        <v>62257.46447288513</v>
+        <v>62257.46447288519</v>
       </c>
       <c r="D128">
-        <v>77987.90665955532</v>
+        <v>77987.90665955527</v>
       </c>
       <c r="E128">
-        <v>94424.47353498601</v>
+        <v>94424.47353498598</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2547,16 +2547,16 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>53208.48429816365</v>
+        <v>53208.48429816363</v>
       </c>
       <c r="C129">
-        <v>62257.46447288513</v>
+        <v>62257.46447288519</v>
       </c>
       <c r="D129">
-        <v>77987.90665955532</v>
+        <v>77987.90665955527</v>
       </c>
       <c r="E129">
-        <v>94424.47353498601</v>
+        <v>94424.47353498598</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2567,13 +2567,13 @@
         <v>53996.0390532107</v>
       </c>
       <c r="C130">
-        <v>61971.61480008443</v>
+        <v>61971.61480008444</v>
       </c>
       <c r="D130">
-        <v>76995.34443056163</v>
+        <v>76995.34443056167</v>
       </c>
       <c r="E130">
-        <v>93656.06235982163</v>
+        <v>93656.06235982166</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2584,13 +2584,13 @@
         <v>53996.0390532107</v>
       </c>
       <c r="C131">
-        <v>61971.61480008443</v>
+        <v>61971.61480008444</v>
       </c>
       <c r="D131">
-        <v>76995.34443056163</v>
+        <v>76995.34443056167</v>
       </c>
       <c r="E131">
-        <v>93656.06235982163</v>
+        <v>93656.06235982166</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2601,13 +2601,13 @@
         <v>53996.0390532107</v>
       </c>
       <c r="C132">
-        <v>61971.61480008443</v>
+        <v>61971.61480008444</v>
       </c>
       <c r="D132">
-        <v>76995.34443056163</v>
+        <v>76995.34443056167</v>
       </c>
       <c r="E132">
-        <v>93656.06235982163</v>
+        <v>93656.06235982166</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2618,13 +2618,13 @@
         <v>53996.0390532107</v>
       </c>
       <c r="C133">
-        <v>61971.61480008443</v>
+        <v>61971.61480008444</v>
       </c>
       <c r="D133">
-        <v>76995.34443056163</v>
+        <v>76995.34443056167</v>
       </c>
       <c r="E133">
-        <v>93656.06235982163</v>
+        <v>93656.06235982166</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2632,16 +2632,16 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>56129.612965935</v>
+        <v>56129.61296593499</v>
       </c>
       <c r="C134">
         <v>64431.45231849104</v>
       </c>
       <c r="D134">
-        <v>78674.39314259254</v>
+        <v>78674.39314259255</v>
       </c>
       <c r="E134">
-        <v>94515.23079325698</v>
+        <v>94515.23079325697</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2649,16 +2649,16 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>53055.47736831025</v>
+        <v>53055.47736831026</v>
       </c>
       <c r="C135">
-        <v>60903.1566396018</v>
+        <v>60903.15663960183</v>
       </c>
       <c r="D135">
         <v>76025.94353199446</v>
       </c>
       <c r="E135">
-        <v>93001.04690170755</v>
+        <v>93001.04690170757</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2666,13 +2666,13 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>52083.69239925989</v>
+        <v>52083.69239925988</v>
       </c>
       <c r="C136">
-        <v>59836.37593353916</v>
+        <v>59836.37593353919</v>
       </c>
       <c r="D136">
-        <v>75337.84586750527</v>
+        <v>75337.84586750528</v>
       </c>
       <c r="E136">
         <v>92544.29193250994</v>
@@ -2683,13 +2683,13 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>52083.69239925989</v>
+        <v>52083.69239925988</v>
       </c>
       <c r="C137">
-        <v>59836.37593353916</v>
+        <v>59836.37593353919</v>
       </c>
       <c r="D137">
-        <v>75337.84586750527</v>
+        <v>75337.84586750528</v>
       </c>
       <c r="E137">
         <v>92544.29193250994</v>
@@ -2700,13 +2700,13 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>52083.69239925989</v>
+        <v>52083.69239925988</v>
       </c>
       <c r="C138">
-        <v>59836.37593353916</v>
+        <v>59836.37593353919</v>
       </c>
       <c r="D138">
-        <v>75337.84586750527</v>
+        <v>75337.84586750528</v>
       </c>
       <c r="E138">
         <v>92544.29193250994</v>
@@ -2717,16 +2717,16 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>51934.10882754743</v>
+        <v>51934.1088275474</v>
       </c>
       <c r="C139">
-        <v>59805.55846480512</v>
+        <v>59805.55846480515</v>
       </c>
       <c r="D139">
-        <v>75302.02333177417</v>
+        <v>75302.02333177418</v>
       </c>
       <c r="E139">
-        <v>92346.22839834013</v>
+        <v>92346.22839834014</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2734,16 +2734,16 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>48696.48273487325</v>
+        <v>48696.48273487327</v>
       </c>
       <c r="C140">
-        <v>57049.00301418635</v>
+        <v>57049.00301418639</v>
       </c>
       <c r="D140">
-        <v>73928.47565886166</v>
+        <v>73928.47565886167</v>
       </c>
       <c r="E140">
-        <v>92080.08479317707</v>
+        <v>92080.08479317704</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2751,16 +2751,16 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>51934.10882754743</v>
+        <v>51934.1088275474</v>
       </c>
       <c r="C141">
-        <v>59805.55846480512</v>
+        <v>59805.55846480515</v>
       </c>
       <c r="D141">
-        <v>75302.02333177417</v>
+        <v>75302.02333177418</v>
       </c>
       <c r="E141">
-        <v>92346.22839834013</v>
+        <v>92346.22839834014</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2768,16 +2768,16 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>51934.10882754743</v>
+        <v>51934.1088275474</v>
       </c>
       <c r="C142">
-        <v>59805.55846480512</v>
+        <v>59805.55846480515</v>
       </c>
       <c r="D142">
-        <v>75302.02333177417</v>
+        <v>75302.02333177418</v>
       </c>
       <c r="E142">
-        <v>92346.22839834013</v>
+        <v>92346.22839834014</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2785,13 +2785,13 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>52197.93294135801</v>
+        <v>52197.93294135798</v>
       </c>
       <c r="C143">
-        <v>60441.53740375189</v>
+        <v>60441.53740375191</v>
       </c>
       <c r="D143">
-        <v>75795.62325656184</v>
+        <v>75795.62325656183</v>
       </c>
       <c r="E143">
         <v>92500.47150437234</v>
@@ -2802,13 +2802,13 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>52197.93294135801</v>
+        <v>52197.93294135798</v>
       </c>
       <c r="C144">
-        <v>60441.53740375189</v>
+        <v>60441.53740375191</v>
       </c>
       <c r="D144">
-        <v>75795.62325656184</v>
+        <v>75795.62325656183</v>
       </c>
       <c r="E144">
         <v>92500.47150437234</v>
@@ -2819,13 +2819,13 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>52197.93294135801</v>
+        <v>52197.93294135798</v>
       </c>
       <c r="C145">
-        <v>60441.53740375189</v>
+        <v>60441.53740375191</v>
       </c>
       <c r="D145">
-        <v>75795.62325656184</v>
+        <v>75795.62325656183</v>
       </c>
       <c r="E145">
         <v>92500.47150437234</v>
@@ -2836,16 +2836,16 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>53208.48429816365</v>
+        <v>53208.48429816363</v>
       </c>
       <c r="C146">
-        <v>62257.46447288513</v>
+        <v>62257.46447288519</v>
       </c>
       <c r="D146">
-        <v>77987.90665955532</v>
+        <v>77987.90665955527</v>
       </c>
       <c r="E146">
-        <v>94424.47353498601</v>
+        <v>94424.47353498598</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2853,16 +2853,16 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>49842.91035156531</v>
+        <v>49842.91035156532</v>
       </c>
       <c r="C147">
         <v>57397.48283437618</v>
       </c>
       <c r="D147">
-        <v>73252.44085246604</v>
+        <v>73252.44085246608</v>
       </c>
       <c r="E147">
-        <v>91061.25681257335</v>
+        <v>91061.25681257332</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2870,13 +2870,13 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>49403.5912017113</v>
+        <v>49403.59120171133</v>
       </c>
       <c r="C148">
-        <v>56595.99581741702</v>
+        <v>56595.99581741701</v>
       </c>
       <c r="D148">
-        <v>72161.38411001762</v>
+        <v>72161.38411001759</v>
       </c>
       <c r="E148">
         <v>90013.56475273002</v>
@@ -2890,13 +2890,13 @@
         <v>47901.04866574899</v>
       </c>
       <c r="C149">
-        <v>54612.50918308044</v>
+        <v>54612.50918308042</v>
       </c>
       <c r="D149">
-        <v>69592.36610518946</v>
+        <v>69592.36610518949</v>
       </c>
       <c r="E149">
-        <v>87455.55962673383</v>
+        <v>87455.5596267338</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2907,13 +2907,13 @@
         <v>47901.04866574899</v>
       </c>
       <c r="C150">
-        <v>54612.50918308044</v>
+        <v>54612.50918308042</v>
       </c>
       <c r="D150">
-        <v>69592.36610518946</v>
+        <v>69592.36610518949</v>
       </c>
       <c r="E150">
-        <v>87455.55962673383</v>
+        <v>87455.5596267338</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2924,13 +2924,13 @@
         <v>47901.04866574899</v>
       </c>
       <c r="C151">
-        <v>54612.50918308044</v>
+        <v>54612.50918308042</v>
       </c>
       <c r="D151">
-        <v>69592.36610518946</v>
+        <v>69592.36610518949</v>
       </c>
       <c r="E151">
-        <v>87455.55962673383</v>
+        <v>87455.5596267338</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2941,13 +2941,13 @@
         <v>47901.04866574899</v>
       </c>
       <c r="C152">
-        <v>54612.50918308044</v>
+        <v>54612.50918308042</v>
       </c>
       <c r="D152">
-        <v>69592.36610518946</v>
+        <v>69592.36610518949</v>
       </c>
       <c r="E152">
-        <v>87455.55962673383</v>
+        <v>87455.5596267338</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2955,16 +2955,16 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>45061.47561596374</v>
+        <v>45061.47561596373</v>
       </c>
       <c r="C153">
-        <v>52904.35900312634</v>
+        <v>52904.35900312635</v>
       </c>
       <c r="D153">
-        <v>70082.99630536659</v>
+        <v>70082.9963053665</v>
       </c>
       <c r="E153">
-        <v>89102.72900695374</v>
+        <v>89102.72900695371</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -2972,16 +2972,16 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>45061.47561596374</v>
+        <v>45061.47561596373</v>
       </c>
       <c r="C154">
-        <v>52904.35900312634</v>
+        <v>52904.35900312635</v>
       </c>
       <c r="D154">
-        <v>70082.99630536659</v>
+        <v>70082.9963053665</v>
       </c>
       <c r="E154">
-        <v>89102.72900695374</v>
+        <v>89102.72900695371</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -2989,16 +2989,16 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>42514.61358393034</v>
+        <v>42514.61358393032</v>
       </c>
       <c r="C155">
-        <v>49052.22633667167</v>
+        <v>49052.22633667163</v>
       </c>
       <c r="D155">
-        <v>64927.4408591719</v>
+        <v>64927.44085917186</v>
       </c>
       <c r="E155">
-        <v>84090.97499216163</v>
+        <v>84090.97499216159</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3006,16 +3006,16 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>42514.61358393034</v>
+        <v>42514.61358393032</v>
       </c>
       <c r="C156">
-        <v>49052.22633667167</v>
+        <v>49052.22633667163</v>
       </c>
       <c r="D156">
-        <v>64927.4408591719</v>
+        <v>64927.44085917186</v>
       </c>
       <c r="E156">
-        <v>84090.97499216163</v>
+        <v>84090.97499216159</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3023,13 +3023,13 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>42913.76085637513</v>
+        <v>42913.76085637511</v>
       </c>
       <c r="C157">
-        <v>49775.01217144822</v>
+        <v>49775.0121714482</v>
       </c>
       <c r="D157">
-        <v>65991.19270823069</v>
+        <v>65991.19270823065</v>
       </c>
       <c r="E157">
         <v>85240.81870869172</v>
@@ -3040,13 +3040,13 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>45613.34252880611</v>
+        <v>45613.3425288061</v>
       </c>
       <c r="C158">
-        <v>52825.18703734801</v>
+        <v>52825.18703734799</v>
       </c>
       <c r="D158">
-        <v>68704.10612545568</v>
+        <v>68704.10612545571</v>
       </c>
       <c r="E158">
         <v>87183.27524553002</v>
@@ -3060,13 +3060,13 @@
         <v>45191.68742299142</v>
       </c>
       <c r="C159">
-        <v>52055.35001362606</v>
+        <v>52055.35001362608</v>
       </c>
       <c r="D159">
-        <v>67614.53587121576</v>
+        <v>67614.53587121578</v>
       </c>
       <c r="E159">
-        <v>86035.07746329981</v>
+        <v>86035.07746329975</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3077,13 +3077,13 @@
         <v>42200.55131619007</v>
       </c>
       <c r="C160">
-        <v>48836.10657002233</v>
+        <v>48836.1065700223</v>
       </c>
       <c r="D160">
-        <v>64565.40298456981</v>
+        <v>64565.40298456977</v>
       </c>
       <c r="E160">
-        <v>83645.57153961493</v>
+        <v>83645.57153961495</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3091,16 +3091,16 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>42477.56401523714</v>
+        <v>42477.56401523713</v>
       </c>
       <c r="C161">
-        <v>50747.30917793587</v>
+        <v>50747.30917793584</v>
       </c>
       <c r="D161">
-        <v>68369.37714983366</v>
+        <v>68369.37714983369</v>
       </c>
       <c r="E161">
-        <v>87647.30111822426</v>
+        <v>87647.30111822425</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3111,13 +3111,13 @@
         <v>43045.60308541344</v>
       </c>
       <c r="C162">
-        <v>50302.7757053632</v>
+        <v>50302.77570536317</v>
       </c>
       <c r="D162">
-        <v>66675.97998317989</v>
+        <v>66675.97998317986</v>
       </c>
       <c r="E162">
-        <v>85929.11355410128</v>
+        <v>85929.11355410126</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3128,13 +3128,13 @@
         <v>48547.94107979882</v>
       </c>
       <c r="C163">
-        <v>55584.95916738754</v>
+        <v>55584.95916738755</v>
       </c>
       <c r="D163">
         <v>70601.93930959761</v>
       </c>
       <c r="E163">
-        <v>88371.99121963949</v>
+        <v>88371.99121963947</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3142,16 +3142,16 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>48974.537983446</v>
+        <v>48974.53798344597</v>
       </c>
       <c r="C164">
-        <v>56348.89671656065</v>
+        <v>56348.89671656062</v>
       </c>
       <c r="D164">
-        <v>71661.89166659722</v>
+        <v>71661.89166659719</v>
       </c>
       <c r="E164">
-        <v>89444.28359925901</v>
+        <v>89444.28359925895</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3159,16 +3159,16 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>44960.8044101812</v>
+        <v>44960.80441018122</v>
       </c>
       <c r="C165">
-        <v>52176.1124073444</v>
+        <v>52176.11240734441</v>
       </c>
       <c r="D165">
         <v>67988.00366191372</v>
       </c>
       <c r="E165">
-        <v>86316.15097002195</v>
+        <v>86316.1509700219</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3176,16 +3176,16 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>44960.8044101812</v>
+        <v>44960.80441018122</v>
       </c>
       <c r="C166">
-        <v>52176.1124073444</v>
+        <v>52176.11240734441</v>
       </c>
       <c r="D166">
         <v>67988.00366191372</v>
       </c>
       <c r="E166">
-        <v>86316.15097002195</v>
+        <v>86316.1509700219</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3193,16 +3193,16 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>44553.21859955227</v>
+        <v>44553.21859955226</v>
       </c>
       <c r="C167">
-        <v>53071.15789599902</v>
+        <v>53071.15789599904</v>
       </c>
       <c r="D167">
-        <v>70601.61692184313</v>
+        <v>70601.61692184312</v>
       </c>
       <c r="E167">
-        <v>89485.17371842555</v>
+        <v>89485.17371842553</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3213,10 +3213,10 @@
         <v>45039.28359126226</v>
       </c>
       <c r="C168">
-        <v>53938.53993654463</v>
+        <v>53938.53993654462</v>
       </c>
       <c r="D168">
-        <v>71757.60760030081</v>
+        <v>71757.60760030083</v>
       </c>
       <c r="E168">
         <v>90561.45445423236</v>
@@ -3230,10 +3230,10 @@
         <v>54013.42464173112</v>
       </c>
       <c r="C169">
-        <v>62279.66730896736</v>
+        <v>62279.66730896738</v>
       </c>
       <c r="D169">
-        <v>77722.14611359069</v>
+        <v>77722.14611359067</v>
       </c>
       <c r="E169">
         <v>94424.44922889782</v>
@@ -3247,13 +3247,13 @@
         <v>52419.1447270658</v>
       </c>
       <c r="C170">
-        <v>59977.03603417972</v>
+        <v>59977.03603417973</v>
       </c>
       <c r="D170">
-        <v>75552.24586136718</v>
+        <v>75552.24586136722</v>
       </c>
       <c r="E170">
-        <v>93017.23980045691</v>
+        <v>93017.23980045685</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3264,10 +3264,10 @@
         <v>54013.42464173112</v>
       </c>
       <c r="C171">
-        <v>62279.66730896736</v>
+        <v>62279.66730896738</v>
       </c>
       <c r="D171">
-        <v>77722.14611359069</v>
+        <v>77722.14611359067</v>
       </c>
       <c r="E171">
         <v>94424.44922889782</v>
@@ -3281,13 +3281,13 @@
         <v>52419.1447270658</v>
       </c>
       <c r="C172">
-        <v>59977.03603417972</v>
+        <v>59977.03603417973</v>
       </c>
       <c r="D172">
-        <v>75552.24586136718</v>
+        <v>75552.24586136722</v>
       </c>
       <c r="E172">
-        <v>93017.23980045691</v>
+        <v>93017.23980045685</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3298,13 +3298,13 @@
         <v>52419.1447270658</v>
       </c>
       <c r="C173">
-        <v>59977.03603417972</v>
+        <v>59977.03603417973</v>
       </c>
       <c r="D173">
-        <v>75552.24586136718</v>
+        <v>75552.24586136722</v>
       </c>
       <c r="E173">
-        <v>93017.23980045691</v>
+        <v>93017.23980045685</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3315,13 +3315,13 @@
         <v>53156.93891729925</v>
       </c>
       <c r="C174">
-        <v>60696.38328421619</v>
+        <v>60696.3832842162</v>
       </c>
       <c r="D174">
-        <v>75587.13124005875</v>
+        <v>75587.13124005876</v>
       </c>
       <c r="E174">
-        <v>92624.34360102737</v>
+        <v>92624.34360102734</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3329,16 +3329,16 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>52261.59181976002</v>
+        <v>52261.59181976001</v>
       </c>
       <c r="C175">
-        <v>60973.59031671109</v>
+        <v>60973.59031671107</v>
       </c>
       <c r="D175">
-        <v>77566.55667178852</v>
+        <v>77566.55667178857</v>
       </c>
       <c r="E175">
-        <v>94926.00240648045</v>
+        <v>94926.00240648046</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3346,16 +3346,16 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>51752.48068756968</v>
+        <v>51752.48068756967</v>
       </c>
       <c r="C176">
-        <v>60095.88440356752</v>
+        <v>60095.88440356755</v>
       </c>
       <c r="D176">
-        <v>76486.38440864344</v>
+        <v>76486.38440864343</v>
       </c>
       <c r="E176">
-        <v>94012.25501296886</v>
+        <v>94012.25501296892</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3363,16 +3363,16 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>51752.48068756968</v>
+        <v>51752.48068756967</v>
       </c>
       <c r="C177">
-        <v>60095.88440356752</v>
+        <v>60095.88440356755</v>
       </c>
       <c r="D177">
-        <v>76486.38440864344</v>
+        <v>76486.38440864343</v>
       </c>
       <c r="E177">
-        <v>94012.25501296886</v>
+        <v>94012.25501296892</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3380,16 +3380,16 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>51814.76658002597</v>
+        <v>51814.76658002596</v>
       </c>
       <c r="C178">
-        <v>59554.16305507319</v>
+        <v>59554.16305507318</v>
       </c>
       <c r="D178">
-        <v>75286.08277475521</v>
+        <v>75286.08277475524</v>
       </c>
       <c r="E178">
-        <v>92775.14922600424</v>
+        <v>92775.14922600419</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3397,16 +3397,16 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>51217.93599333827</v>
+        <v>51217.93599333829</v>
       </c>
       <c r="C179">
-        <v>59103.88053034299</v>
+        <v>59103.880530343</v>
       </c>
       <c r="D179">
-        <v>75091.99549375026</v>
+        <v>75091.99549375032</v>
       </c>
       <c r="E179">
-        <v>92707.92777819734</v>
+        <v>92707.92777819729</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3414,7 +3414,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>52208.30276992255</v>
+        <v>52208.30276992256</v>
       </c>
       <c r="C180">
         <v>60846.54384960985</v>
@@ -3431,7 +3431,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>52208.30276992255</v>
+        <v>52208.30276992256</v>
       </c>
       <c r="C181">
         <v>60846.54384960985</v>
@@ -3448,16 +3448,16 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>44705.09455953218</v>
+        <v>44705.09455953216</v>
       </c>
       <c r="C182">
-        <v>52498.34938640875</v>
+        <v>52498.3493864088</v>
       </c>
       <c r="D182">
-        <v>70069.31614135257</v>
+        <v>70069.31614135255</v>
       </c>
       <c r="E182">
-        <v>89586.01058651488</v>
+        <v>89586.01058651495</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3465,13 +3465,13 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>43318.75715458697</v>
+        <v>43318.75715458698</v>
       </c>
       <c r="C183">
-        <v>50316.16974532814</v>
+        <v>50316.16974532816</v>
       </c>
       <c r="D183">
-        <v>67817.1762887309</v>
+        <v>67817.17628873092</v>
       </c>
       <c r="E183">
         <v>87794.41000730901</v>
@@ -3482,16 +3482,16 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>48315.57612254102</v>
+        <v>48315.57612254103</v>
       </c>
       <c r="C184">
-        <v>56636.1757786368</v>
+        <v>56636.17577863679</v>
       </c>
       <c r="D184">
         <v>73648.75170939219</v>
       </c>
       <c r="E184">
-        <v>92138.1156626821</v>
+        <v>92138.11566268209</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3499,16 +3499,16 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>48315.57612254102</v>
+        <v>48315.57612254103</v>
       </c>
       <c r="C185">
-        <v>56636.1757786368</v>
+        <v>56636.17577863679</v>
       </c>
       <c r="D185">
         <v>73648.75170939219</v>
       </c>
       <c r="E185">
-        <v>92138.1156626821</v>
+        <v>92138.11566268209</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3519,13 +3519,13 @@
         <v>45007.29201096758</v>
       </c>
       <c r="C186">
-        <v>53058.24200461594</v>
+        <v>53058.24200461592</v>
       </c>
       <c r="D186">
-        <v>70762.24749800746</v>
+        <v>70762.24749800748</v>
       </c>
       <c r="E186">
-        <v>90022.44813057946</v>
+        <v>90022.44813057945</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3536,13 +3536,13 @@
         <v>44551.23899396391</v>
       </c>
       <c r="C187">
-        <v>52194.20642649003</v>
+        <v>52194.20642649</v>
       </c>
       <c r="D187">
-        <v>69624.17408821022</v>
+        <v>69624.1740882102</v>
       </c>
       <c r="E187">
-        <v>88937.24661107241</v>
+        <v>88937.24661107242</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3550,16 +3550,16 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>44161.55481198458</v>
+        <v>44161.55481198459</v>
       </c>
       <c r="C188">
-        <v>52235.92400724647</v>
+        <v>52235.92400724652</v>
       </c>
       <c r="D188">
         <v>70196.26058836082</v>
       </c>
       <c r="E188">
-        <v>89843.95490101044</v>
+        <v>89843.95490101048</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3567,16 +3567,16 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>44161.55481198458</v>
+        <v>44161.55481198459</v>
       </c>
       <c r="C189">
-        <v>52235.92400724647</v>
+        <v>52235.92400724652</v>
       </c>
       <c r="D189">
         <v>70196.26058836082</v>
       </c>
       <c r="E189">
-        <v>89843.95490101044</v>
+        <v>89843.95490101048</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3584,16 +3584,16 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>44161.55481198458</v>
+        <v>44161.55481198459</v>
       </c>
       <c r="C190">
-        <v>52235.92400724647</v>
+        <v>52235.92400724652</v>
       </c>
       <c r="D190">
         <v>70196.26058836082</v>
       </c>
       <c r="E190">
-        <v>89843.95490101044</v>
+        <v>89843.95490101048</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3601,7 +3601,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>48299.19794439254</v>
+        <v>48299.19794439252</v>
       </c>
       <c r="C191">
         <v>56874.09390456347</v>
@@ -3610,7 +3610,7 @@
         <v>74007.45146458203</v>
       </c>
       <c r="E191">
-        <v>92356.03902079306</v>
+        <v>92356.03902079303</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3621,13 +3621,13 @@
         <v>44551.23899396391</v>
       </c>
       <c r="C192">
-        <v>52194.20642649003</v>
+        <v>52194.20642649</v>
       </c>
       <c r="D192">
-        <v>69624.17408821022</v>
+        <v>69624.1740882102</v>
       </c>
       <c r="E192">
-        <v>88937.24661107241</v>
+        <v>88937.24661107242</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3635,16 +3635,16 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>53168.17485756663</v>
+        <v>53168.17485756658</v>
       </c>
       <c r="C193">
-        <v>61438.16146606104</v>
+        <v>61438.16146606102</v>
       </c>
       <c r="D193">
-        <v>77376.83584990261</v>
+        <v>77376.83584990267</v>
       </c>
       <c r="E193">
-        <v>94188.42899449379</v>
+        <v>94188.42899449381</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3652,16 +3652,16 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>53168.17485756663</v>
+        <v>53168.17485756658</v>
       </c>
       <c r="C194">
-        <v>61438.16146606104</v>
+        <v>61438.16146606102</v>
       </c>
       <c r="D194">
-        <v>77376.83584990261</v>
+        <v>77376.83584990267</v>
       </c>
       <c r="E194">
-        <v>94188.42899449379</v>
+        <v>94188.42899449381</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3672,10 +3672,10 @@
         <v>54013.42464173112</v>
       </c>
       <c r="C195">
-        <v>62279.66730896736</v>
+        <v>62279.66730896738</v>
       </c>
       <c r="D195">
-        <v>77722.14611359069</v>
+        <v>77722.14611359067</v>
       </c>
       <c r="E195">
         <v>94424.44922889782</v>
@@ -3686,16 +3686,16 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>49493.104936328</v>
+        <v>49493.10493632801</v>
       </c>
       <c r="C196">
         <v>57412.47665722462</v>
       </c>
       <c r="D196">
-        <v>73939.29390647476</v>
+        <v>73939.29390647479</v>
       </c>
       <c r="E196">
-        <v>91949.80797760765</v>
+        <v>91949.80797760758</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3703,16 +3703,16 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>49790.79027441123</v>
+        <v>49790.79027441124</v>
       </c>
       <c r="C197">
-        <v>57817.22373836504</v>
+        <v>57817.22373836505</v>
       </c>
       <c r="D197">
-        <v>74584.26749228203</v>
+        <v>74584.26749228206</v>
       </c>
       <c r="E197">
-        <v>92389.42807196692</v>
+        <v>92389.42807196693</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3720,16 +3720,16 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>49790.79027441123</v>
+        <v>49790.79027441124</v>
       </c>
       <c r="C198">
-        <v>57817.22373836504</v>
+        <v>57817.22373836505</v>
       </c>
       <c r="D198">
-        <v>74584.26749228203</v>
+        <v>74584.26749228206</v>
       </c>
       <c r="E198">
-        <v>92389.42807196692</v>
+        <v>92389.42807196693</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3740,7 +3740,7 @@
         <v>50289.22809029717</v>
       </c>
       <c r="C199">
-        <v>58752.97310173388</v>
+        <v>58752.97310173386</v>
       </c>
       <c r="D199">
         <v>75756.96453549432</v>
@@ -3757,7 +3757,7 @@
         <v>50289.22809029717</v>
       </c>
       <c r="C200">
-        <v>58752.97310173388</v>
+        <v>58752.97310173386</v>
       </c>
       <c r="D200">
         <v>75756.96453549432</v>
@@ -3771,16 +3771,16 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>51379.19647410612</v>
+        <v>51379.19647410615</v>
       </c>
       <c r="C201">
-        <v>60913.73414472843</v>
+        <v>60913.73414472846</v>
       </c>
       <c r="D201">
-        <v>78421.33662758174</v>
+        <v>78421.33662758175</v>
       </c>
       <c r="E201">
-        <v>95354.89966308532</v>
+        <v>95354.89966308535</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3788,16 +3788,16 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>48907.03862290039</v>
+        <v>48907.03862290037</v>
       </c>
       <c r="C202">
-        <v>58711.54693145691</v>
+        <v>58711.54693145689</v>
       </c>
       <c r="D202">
         <v>77085.81270275441</v>
       </c>
       <c r="E202">
-        <v>94767.27629500991</v>
+        <v>94767.2762950099</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3805,16 +3805,16 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>49980.27740186315</v>
+        <v>49980.27740186318</v>
       </c>
       <c r="C203">
-        <v>58304.75485093422</v>
+        <v>58304.7548509342</v>
       </c>
       <c r="D203">
-        <v>75036.80387315282</v>
+        <v>75036.80387315286</v>
       </c>
       <c r="E203">
-        <v>92935.99269154498</v>
+        <v>92935.99269154496</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3822,13 +3822,13 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>47862.84704879323</v>
+        <v>47862.8470487932</v>
       </c>
       <c r="C204">
-        <v>56376.34269073272</v>
+        <v>56376.34269073274</v>
       </c>
       <c r="D204">
-        <v>73819.37837928992</v>
+        <v>73819.37837928989</v>
       </c>
       <c r="E204">
         <v>92142.62014771972</v>
@@ -3839,7 +3839,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>48371.61289594337</v>
+        <v>48371.61289594335</v>
       </c>
       <c r="C205">
         <v>57296.01181291758</v>
@@ -3848,7 +3848,7 @@
         <v>74943.00108006256</v>
       </c>
       <c r="E205">
-        <v>93124.49541981705</v>
+        <v>93124.49541981702</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3862,10 +3862,10 @@
         <v>45909.30690552177</v>
       </c>
       <c r="D206">
-        <v>62273.58368385374</v>
+        <v>62273.58368385373</v>
       </c>
       <c r="E206">
-        <v>79068.10043854483</v>
+        <v>79068.10043854482</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3873,7 +3873,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>31585.31027688023</v>
+        <v>31585.31027688022</v>
       </c>
       <c r="C207">
         <v>40957.80804976088</v>
@@ -3882,7 +3882,7 @@
         <v>57060.33022436623</v>
       </c>
       <c r="E207">
-        <v>73925.24930481301</v>
+        <v>73925.249304813</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3890,7 +3890,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>31585.31027688023</v>
+        <v>31585.31027688022</v>
       </c>
       <c r="C208">
         <v>40957.80804976088</v>
@@ -3899,7 +3899,7 @@
         <v>57060.33022436623</v>
       </c>
       <c r="E208">
-        <v>73925.24930481301</v>
+        <v>73925.249304813</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3913,10 +3913,10 @@
         <v>45909.30690552177</v>
       </c>
       <c r="D209">
-        <v>62273.58368385374</v>
+        <v>62273.58368385373</v>
       </c>
       <c r="E209">
-        <v>79068.10043854483</v>
+        <v>79068.10043854482</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -3924,7 +3924,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>31585.31027688023</v>
+        <v>31585.31027688022</v>
       </c>
       <c r="C210">
         <v>40957.80804976088</v>
@@ -3933,7 +3933,7 @@
         <v>57060.33022436623</v>
       </c>
       <c r="E210">
-        <v>73925.24930481301</v>
+        <v>73925.249304813</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -3941,10 +3941,10 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>32413.01274246727</v>
+        <v>32413.01274246728</v>
       </c>
       <c r="C211">
-        <v>41946.78800670957</v>
+        <v>41946.78800670955</v>
       </c>
       <c r="D211">
         <v>58429.73717502791</v>
@@ -3964,10 +3964,10 @@
         <v>45634.8726408436</v>
       </c>
       <c r="D212">
-        <v>62997.03298741653</v>
+        <v>62997.03298741652</v>
       </c>
       <c r="E212">
-        <v>80608.88323959129</v>
+        <v>80608.88323959132</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -3975,7 +3975,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>31585.31027688023</v>
+        <v>31585.31027688022</v>
       </c>
       <c r="C213">
         <v>40957.80804976088</v>
@@ -3984,7 +3984,7 @@
         <v>57060.33022436623</v>
       </c>
       <c r="E213">
-        <v>73925.24930481301</v>
+        <v>73925.249304813</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -3995,13 +3995,13 @@
         <v>29082.78022260307</v>
       </c>
       <c r="C214">
-        <v>37464.19826804022</v>
+        <v>37464.19826804021</v>
       </c>
       <c r="D214">
         <v>53040.76797249838</v>
       </c>
       <c r="E214">
-        <v>69878.35768446179</v>
+        <v>69878.35768446178</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4012,13 +4012,13 @@
         <v>29082.78022260307</v>
       </c>
       <c r="C215">
-        <v>37464.19826804022</v>
+        <v>37464.19826804021</v>
       </c>
       <c r="D215">
         <v>53040.76797249838</v>
       </c>
       <c r="E215">
-        <v>69878.35768446179</v>
+        <v>69878.35768446178</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4026,16 +4026,16 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>28327.76377564314</v>
+        <v>28327.76377564313</v>
       </c>
       <c r="C216">
-        <v>36389.37490447182</v>
+        <v>36389.37490447181</v>
       </c>
       <c r="D216">
-        <v>51478.97540244518</v>
+        <v>51478.97540244516</v>
       </c>
       <c r="E216">
-        <v>68083.57040327862</v>
+        <v>68083.57040327859</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4049,10 +4049,10 @@
         <v>38114.22790926888</v>
       </c>
       <c r="D217">
-        <v>54184.15586817972</v>
+        <v>54184.15586817978</v>
       </c>
       <c r="E217">
-        <v>71309.7739767601</v>
+        <v>71309.77397676016</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4060,13 +4060,13 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>29714.36563627303</v>
+        <v>29714.36563627302</v>
       </c>
       <c r="C218">
         <v>38908.5936010314</v>
       </c>
       <c r="D218">
-        <v>55478.31297485105</v>
+        <v>55478.3129748511</v>
       </c>
       <c r="E218">
         <v>72962.7251411529</v>
@@ -4077,16 +4077,16 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>35198.58425992348</v>
+        <v>35198.58425992347</v>
       </c>
       <c r="C219">
-        <v>45332.48967010933</v>
+        <v>45332.48967010936</v>
       </c>
       <c r="D219">
-        <v>62572.48187361381</v>
+        <v>62572.48187361378</v>
       </c>
       <c r="E219">
-        <v>80106.2113863476</v>
+        <v>80106.21138634757</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4097,10 +4097,10 @@
         <v>35219.62107264306</v>
       </c>
       <c r="C220">
-        <v>46696.39538314453</v>
+        <v>46696.39538314452</v>
       </c>
       <c r="D220">
-        <v>64726.15123832064</v>
+        <v>64726.15123832061</v>
       </c>
       <c r="E220">
         <v>82401.22783870771</v>
@@ -4111,16 +4111,16 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>37881.64501162722</v>
+        <v>37881.64501162723</v>
       </c>
       <c r="C221">
-        <v>48363.77918097837</v>
+        <v>48363.7791809784</v>
       </c>
       <c r="D221">
-        <v>65857.5235494001</v>
+        <v>65857.52354940008</v>
       </c>
       <c r="E221">
-        <v>83320.3497492211</v>
+        <v>83320.34974922109</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4128,16 +4128,16 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>35198.58425992348</v>
+        <v>35198.58425992347</v>
       </c>
       <c r="C222">
-        <v>45332.48967010933</v>
+        <v>45332.48967010936</v>
       </c>
       <c r="D222">
-        <v>62572.48187361381</v>
+        <v>62572.48187361378</v>
       </c>
       <c r="E222">
-        <v>80106.2113863476</v>
+        <v>80106.21138634757</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4145,16 +4145,16 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>38413.93880422863</v>
+        <v>38413.93880422865</v>
       </c>
       <c r="C223">
-        <v>49400.68203379024</v>
+        <v>49400.68203379025</v>
       </c>
       <c r="D223">
-        <v>67203.93598050284</v>
+        <v>67203.93598050279</v>
       </c>
       <c r="E223">
-        <v>84700.75359381687</v>
+        <v>84700.75359381681</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4162,16 +4162,16 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>29241.30064689639</v>
+        <v>29241.3006468964</v>
       </c>
       <c r="C224">
-        <v>37679.24908793018</v>
+        <v>37679.24908793016</v>
       </c>
       <c r="D224">
         <v>53276.70671294681</v>
       </c>
       <c r="E224">
-        <v>70472.96998972152</v>
+        <v>70472.96998972155</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4182,13 +4182,13 @@
         <v>28554.83911325772</v>
       </c>
       <c r="C225">
-        <v>36397.40160654471</v>
+        <v>36397.40160654469</v>
       </c>
       <c r="D225">
-        <v>51015.52126155935</v>
+        <v>51015.52126155938</v>
       </c>
       <c r="E225">
-        <v>67218.5458603365</v>
+        <v>67218.54586033648</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4196,7 +4196,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>28894.33874423488</v>
+        <v>28894.33874423489</v>
       </c>
       <c r="C226">
         <v>37030.94682105043</v>
@@ -4205,7 +4205,7 @@
         <v>52139.36914524288</v>
       </c>
       <c r="E226">
-        <v>68853.85147083702</v>
+        <v>68853.85147083701</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4216,13 +4216,13 @@
         <v>29341.71868400621</v>
       </c>
       <c r="C227">
-        <v>37018.38361405052</v>
+        <v>37018.38361405051</v>
       </c>
       <c r="D227">
-        <v>51204.02133806592</v>
+        <v>51204.02133806593</v>
       </c>
       <c r="E227">
-        <v>67191.98639072897</v>
+        <v>67191.98639072898</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4233,13 +4233,13 @@
         <v>25741.93085191773</v>
       </c>
       <c r="C228">
-        <v>34301.8882939364</v>
+        <v>34301.88829393639</v>
       </c>
       <c r="D228">
-        <v>51362.75086377452</v>
+        <v>51362.7508637745</v>
       </c>
       <c r="E228">
-        <v>70175.24552162435</v>
+        <v>70175.24552162431</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4250,10 +4250,10 @@
         <v>35219.62107264306</v>
       </c>
       <c r="C229">
-        <v>46696.39538314453</v>
+        <v>46696.39538314452</v>
       </c>
       <c r="D229">
-        <v>64726.15123832064</v>
+        <v>64726.15123832061</v>
       </c>
       <c r="E229">
         <v>82401.22783870771</v>
@@ -4264,16 +4264,16 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>37365.99559356568</v>
+        <v>37365.99559356569</v>
       </c>
       <c r="C230">
-        <v>47362.74420514087</v>
+        <v>47362.74420514089</v>
       </c>
       <c r="D230">
-        <v>64506.7481829397</v>
+        <v>64506.74818293966</v>
       </c>
       <c r="E230">
-        <v>81884.75498295478</v>
+        <v>81884.75498295475</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4281,16 +4281,16 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>35519.60055108401</v>
+        <v>35519.60055108403</v>
       </c>
       <c r="C231">
-        <v>46623.81253508604</v>
+        <v>46623.81253508606</v>
       </c>
       <c r="D231">
-        <v>64336.60785476812</v>
+        <v>64336.6078547681</v>
       </c>
       <c r="E231">
-        <v>82072.427891381</v>
+        <v>82072.42789138103</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4298,16 +4298,16 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>31936.99715040176</v>
+        <v>31936.99715040177</v>
       </c>
       <c r="C232">
-        <v>41676.20889035635</v>
+        <v>41676.20889035636</v>
       </c>
       <c r="D232">
-        <v>59154.29813685057</v>
+        <v>59154.29813685058</v>
       </c>
       <c r="E232">
-        <v>77251.38047707251</v>
+        <v>77251.38047707255</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4321,10 +4321,10 @@
         <v>42609.83238671246</v>
       </c>
       <c r="D233">
-        <v>60540.00559282736</v>
+        <v>60540.00559282737</v>
       </c>
       <c r="E233">
-        <v>78839.02285869014</v>
+        <v>78839.02285869003</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4335,13 +4335,13 @@
         <v>37264.18200872374</v>
       </c>
       <c r="C234">
-        <v>47721.87793802757</v>
+        <v>47721.87793802758</v>
       </c>
       <c r="D234">
-        <v>64795.30263009181</v>
+        <v>64795.30263009179</v>
       </c>
       <c r="E234">
-        <v>82104.7601753512</v>
+        <v>82104.76017535127</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4352,13 +4352,13 @@
         <v>37264.18200872374</v>
       </c>
       <c r="C235">
-        <v>47721.87793802757</v>
+        <v>47721.87793802758</v>
       </c>
       <c r="D235">
-        <v>64795.30263009181</v>
+        <v>64795.30263009179</v>
       </c>
       <c r="E235">
-        <v>82104.7601753512</v>
+        <v>82104.76017535127</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4369,13 +4369,13 @@
         <v>37264.18200872374</v>
       </c>
       <c r="C236">
-        <v>47721.87793802757</v>
+        <v>47721.87793802758</v>
       </c>
       <c r="D236">
-        <v>64795.30263009181</v>
+        <v>64795.30263009179</v>
       </c>
       <c r="E236">
-        <v>82104.7601753512</v>
+        <v>82104.76017535127</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4386,13 +4386,13 @@
         <v>29654.73005172814</v>
       </c>
       <c r="C237">
-        <v>37604.98622002458</v>
+        <v>37604.98622002457</v>
       </c>
       <c r="D237">
-        <v>52304.94967209264</v>
+        <v>52304.94967209265</v>
       </c>
       <c r="E237">
-        <v>68798.64917429982</v>
+        <v>68798.64917429979</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4403,13 +4403,13 @@
         <v>29341.71868400621</v>
       </c>
       <c r="C238">
-        <v>37018.38361405052</v>
+        <v>37018.38361405051</v>
       </c>
       <c r="D238">
-        <v>51204.02133806592</v>
+        <v>51204.02133806593</v>
       </c>
       <c r="E238">
-        <v>67191.98639072897</v>
+        <v>67191.98639072898</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4417,16 +4417,16 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>29971.20924080889</v>
+        <v>29971.20924080888</v>
       </c>
       <c r="C239">
         <v>38215.26998876208</v>
       </c>
       <c r="D239">
-        <v>53434.61800978245</v>
+        <v>53434.61800978247</v>
       </c>
       <c r="E239">
-        <v>70396.02322125559</v>
+        <v>70396.0232212556</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4434,16 +4434,16 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>27221.79445811758</v>
+        <v>27221.79445811757</v>
       </c>
       <c r="C240">
         <v>35377.0999501603</v>
       </c>
       <c r="D240">
-        <v>50801.49062430987</v>
+        <v>50801.49062430989</v>
       </c>
       <c r="E240">
-        <v>67754.33937497473</v>
+        <v>67754.33937497475</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4454,10 +4454,10 @@
         <v>27072.87088929906</v>
       </c>
       <c r="C241">
-        <v>35137.08526409666</v>
+        <v>35137.08526409665</v>
       </c>
       <c r="D241">
-        <v>50419.64689448004</v>
+        <v>50419.64689448007</v>
       </c>
       <c r="E241">
         <v>67259.32096739083</v>
@@ -4468,16 +4468,16 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>37881.64501162722</v>
+        <v>37881.64501162723</v>
       </c>
       <c r="C242">
-        <v>48363.77918097837</v>
+        <v>48363.7791809784</v>
       </c>
       <c r="D242">
-        <v>65857.5235494001</v>
+        <v>65857.52354940008</v>
       </c>
       <c r="E242">
-        <v>83320.3497492211</v>
+        <v>83320.34974922109</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4485,7 +4485,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>39915.71956593434</v>
+        <v>39915.71956593432</v>
       </c>
       <c r="C243">
         <v>50539.59233105286</v>
@@ -4494,7 +4494,7 @@
         <v>67859.84460918077</v>
       </c>
       <c r="E243">
-        <v>85015.64728619275</v>
+        <v>85015.64728619279</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4502,16 +4502,16 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>37881.64501162722</v>
+        <v>37881.64501162723</v>
       </c>
       <c r="C244">
-        <v>48363.77918097837</v>
+        <v>48363.7791809784</v>
       </c>
       <c r="D244">
-        <v>65857.5235494001</v>
+        <v>65857.52354940008</v>
       </c>
       <c r="E244">
-        <v>83320.3497492211</v>
+        <v>83320.34974922109</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4519,16 +4519,16 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>40495.79859740443</v>
+        <v>40495.79859740442</v>
       </c>
       <c r="C245">
-        <v>51632.29864689701</v>
+        <v>51632.29864689703</v>
       </c>
       <c r="D245">
-        <v>69231.19499608461</v>
+        <v>69231.19499608458</v>
       </c>
       <c r="E245">
-        <v>86338.10729878998</v>
+        <v>86338.10729878997</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4536,16 +4536,16 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>41857.69702401265</v>
+        <v>41857.69702401263</v>
       </c>
       <c r="C246">
-        <v>53856.81561786551</v>
+        <v>53856.81561786554</v>
       </c>
       <c r="D246">
-        <v>71449.27606978967</v>
+        <v>71449.27606978966</v>
       </c>
       <c r="E246">
-        <v>88265.51010733409</v>
+        <v>88265.51010733403</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4553,16 +4553,16 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>41857.69702401265</v>
+        <v>41857.69702401263</v>
       </c>
       <c r="C247">
-        <v>53856.81561786551</v>
+        <v>53856.81561786554</v>
       </c>
       <c r="D247">
-        <v>71449.27606978967</v>
+        <v>71449.27606978966</v>
       </c>
       <c r="E247">
-        <v>88265.51010733409</v>
+        <v>88265.51010733403</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4573,13 +4573,13 @@
         <v>33261.18756574527</v>
       </c>
       <c r="C248">
-        <v>43590.63259528462</v>
+        <v>43590.6325952846</v>
       </c>
       <c r="D248">
-        <v>60969.46543652108</v>
+        <v>60969.46543652104</v>
       </c>
       <c r="E248">
-        <v>79047.1290124743</v>
+        <v>79047.12901247422</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4590,13 +4590,13 @@
         <v>25741.93085191773</v>
       </c>
       <c r="C249">
-        <v>34301.8882939364</v>
+        <v>34301.88829393639</v>
       </c>
       <c r="D249">
-        <v>51362.75086377452</v>
+        <v>51362.7508637745</v>
       </c>
       <c r="E249">
-        <v>70175.24552162435</v>
+        <v>70175.24552162431</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4604,10 +4604,10 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>49575.79720841244</v>
+        <v>49575.79720841245</v>
       </c>
       <c r="C250">
-        <v>59671.45066352465</v>
+        <v>59671.45066352467</v>
       </c>
       <c r="D250">
         <v>75543.29615625547</v>
@@ -4624,13 +4624,13 @@
         <v>51005.1952521382</v>
       </c>
       <c r="C251">
-        <v>61633.98232297298</v>
+        <v>61633.98232297297</v>
       </c>
       <c r="D251">
-        <v>77450.83757189456</v>
+        <v>77450.83757189462</v>
       </c>
       <c r="E251">
-        <v>92971.61130789865</v>
+        <v>92971.61130789867</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4641,10 +4641,10 @@
         <v>47126.84681779418</v>
       </c>
       <c r="C252">
-        <v>56493.27763619066</v>
+        <v>56493.27763619063</v>
       </c>
       <c r="D252">
-        <v>72229.40965919575</v>
+        <v>72229.40965919574</v>
       </c>
       <c r="E252">
         <v>88495.67658433599</v>
@@ -4658,13 +4658,13 @@
         <v>47517.74849721436</v>
       </c>
       <c r="C253">
-        <v>57725.83270329063</v>
+        <v>57725.8327032906</v>
       </c>
       <c r="D253">
-        <v>74632.98247256684</v>
+        <v>74632.98247256686</v>
       </c>
       <c r="E253">
-        <v>91195.75029703219</v>
+        <v>91195.75029703218</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4675,13 +4675,13 @@
         <v>50893.45807318919</v>
       </c>
       <c r="C254">
-        <v>61176.52646367311</v>
+        <v>61176.52646367312</v>
       </c>
       <c r="D254">
-        <v>77635.42422407775</v>
+        <v>77635.42422407774</v>
       </c>
       <c r="E254">
-        <v>93796.88822425329</v>
+        <v>93796.8882242533</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4692,13 +4692,13 @@
         <v>47517.74849721436</v>
       </c>
       <c r="C255">
-        <v>57725.83270329063</v>
+        <v>57725.8327032906</v>
       </c>
       <c r="D255">
-        <v>74632.98247256684</v>
+        <v>74632.98247256686</v>
       </c>
       <c r="E255">
-        <v>91195.75029703219</v>
+        <v>91195.75029703218</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4706,13 +4706,13 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>45753.39799236098</v>
+        <v>45753.397992361</v>
       </c>
       <c r="C256">
-        <v>55270.2543752668</v>
+        <v>55270.25437526681</v>
       </c>
       <c r="D256">
-        <v>71045.54995762453</v>
+        <v>71045.54995762451</v>
       </c>
       <c r="E256">
         <v>87455.46728251575</v>
@@ -4726,13 +4726,13 @@
         <v>39731.5254976728</v>
       </c>
       <c r="C257">
-        <v>48400.37897527889</v>
+        <v>48400.37897527887</v>
       </c>
       <c r="D257">
-        <v>64885.43487970885</v>
+        <v>64885.4348797089</v>
       </c>
       <c r="E257">
-        <v>82328.56300501825</v>
+        <v>82328.56300501821</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4743,10 +4743,10 @@
         <v>40346.25937986212</v>
       </c>
       <c r="C258">
-        <v>48137.25257877422</v>
+        <v>48137.2525787742</v>
       </c>
       <c r="D258">
-        <v>64586.60912030826</v>
+        <v>64586.60912030828</v>
       </c>
       <c r="E258">
         <v>82418.3902611076</v>
@@ -4760,10 +4760,10 @@
         <v>40346.25937986212</v>
       </c>
       <c r="C259">
-        <v>48137.25257877422</v>
+        <v>48137.2525787742</v>
       </c>
       <c r="D259">
-        <v>64586.60912030826</v>
+        <v>64586.60912030828</v>
       </c>
       <c r="E259">
         <v>82418.3902611076</v>
@@ -4774,16 +4774,16 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>15265.63167944045</v>
+        <v>15265.63167944046</v>
       </c>
       <c r="C260">
         <v>22887.15163444432</v>
       </c>
       <c r="D260">
-        <v>45717.04667324996</v>
+        <v>45717.04667324997</v>
       </c>
       <c r="E260">
-        <v>70866.20105423393</v>
+        <v>70866.20105423391</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4791,7 +4791,7 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>9117.100706722271</v>
+        <v>9117.100706722265</v>
       </c>
       <c r="C261">
         <v>13876.16375620036</v>
@@ -4800,7 +4800,7 @@
         <v>34328.24523510623</v>
       </c>
       <c r="E261">
-        <v>58931.73480508413</v>
+        <v>58931.73480508407</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4808,16 +4808,16 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>14582.01832668482</v>
+        <v>14582.01832668483</v>
       </c>
       <c r="C262">
-        <v>21102.54827960292</v>
+        <v>21102.54827960291</v>
       </c>
       <c r="D262">
-        <v>42644.79917060699</v>
+        <v>42644.79917060701</v>
       </c>
       <c r="E262">
-        <v>67385.78371703941</v>
+        <v>67385.78371703942</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4825,16 +4825,16 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>14849.5119698749</v>
+        <v>14849.51196987491</v>
       </c>
       <c r="C263">
         <v>21804.31090549948</v>
       </c>
       <c r="D263">
-        <v>43965.06208202379</v>
+        <v>43965.0620820238</v>
       </c>
       <c r="E263">
-        <v>69057.95313126357</v>
+        <v>69057.95313126361</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4851,7 +4851,7 @@
         <v>40528.45453410085</v>
       </c>
       <c r="E264">
-        <v>65046.12824094207</v>
+        <v>65046.12824094209</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4868,7 +4868,7 @@
         <v>40528.45453410085</v>
       </c>
       <c r="E265">
-        <v>65046.12824094207</v>
+        <v>65046.12824094209</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4876,16 +4876,16 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>18220.67907326604</v>
+        <v>18220.67907326603</v>
       </c>
       <c r="C266">
-        <v>27063.47919804724</v>
+        <v>27063.47919804725</v>
       </c>
       <c r="D266">
         <v>50449.58291890514</v>
       </c>
       <c r="E266">
-        <v>75671.24855163808</v>
+        <v>75671.2485516381</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4902,7 +4902,7 @@
         <v>40528.45453410085</v>
       </c>
       <c r="E267">
-        <v>65046.12824094207</v>
+        <v>65046.12824094209</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -4910,7 +4910,7 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>9117.100706722271</v>
+        <v>9117.100706722265</v>
       </c>
       <c r="C268">
         <v>13876.16375620036</v>
@@ -4919,7 +4919,7 @@
         <v>34328.24523510623</v>
       </c>
       <c r="E268">
-        <v>58931.73480508413</v>
+        <v>58931.73480508407</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -4927,7 +4927,7 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>9117.100706722271</v>
+        <v>9117.100706722265</v>
       </c>
       <c r="C269">
         <v>13876.16375620036</v>
@@ -4936,7 +4936,7 @@
         <v>34328.24523510623</v>
       </c>
       <c r="E269">
-        <v>58931.73480508413</v>
+        <v>58931.73480508407</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -4944,16 +4944,16 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>10034.22596781862</v>
+        <v>10034.22596781863</v>
       </c>
       <c r="C270">
         <v>17228.92842719483</v>
       </c>
       <c r="D270">
-        <v>39428.2142742602</v>
+        <v>39428.21427426019</v>
       </c>
       <c r="E270">
-        <v>63891.4628082546</v>
+        <v>63891.46280825459</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -4961,13 +4961,13 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>7412.174050535668</v>
+        <v>7412.174050535665</v>
       </c>
       <c r="C271">
         <v>12812.29723523591</v>
       </c>
       <c r="D271">
-        <v>32040.67802738383</v>
+        <v>32040.67802738386</v>
       </c>
       <c r="E271">
         <v>54338.26649483218</v>
@@ -4978,13 +4978,13 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>7412.174050535668</v>
+        <v>7412.174050535665</v>
       </c>
       <c r="C272">
         <v>12812.29723523591</v>
       </c>
       <c r="D272">
-        <v>32040.67802738383</v>
+        <v>32040.67802738386</v>
       </c>
       <c r="E272">
         <v>54338.26649483218</v>
@@ -4995,16 +4995,16 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>11020.48731602646</v>
+        <v>11020.48731602645</v>
       </c>
       <c r="C273">
         <v>18824.61693203475</v>
       </c>
       <c r="D273">
-        <v>41987.82203802648</v>
+        <v>41987.82203802649</v>
       </c>
       <c r="E273">
-        <v>67106.85353365391</v>
+        <v>67106.85353365385</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5012,16 +5012,16 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>11020.48731602646</v>
+        <v>11020.48731602645</v>
       </c>
       <c r="C274">
         <v>18824.61693203475</v>
       </c>
       <c r="D274">
-        <v>41987.82203802648</v>
+        <v>41987.82203802649</v>
       </c>
       <c r="E274">
-        <v>67106.85353365391</v>
+        <v>67106.85353365385</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5038,7 +5038,7 @@
         <v>38745.44047784152</v>
       </c>
       <c r="E275">
-        <v>57671.84493456162</v>
+        <v>57671.84493456159</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5052,10 +5052,10 @@
         <v>14077.60468992366</v>
       </c>
       <c r="D276">
-        <v>31858.93045819193</v>
+        <v>31858.93045819192</v>
       </c>
       <c r="E276">
-        <v>49781.7055406082</v>
+        <v>49781.70554060823</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5063,16 +5063,16 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>17893.35844355593</v>
+        <v>17893.35844355592</v>
       </c>
       <c r="C277">
-        <v>26447.03041634625</v>
+        <v>26447.03041634626</v>
       </c>
       <c r="D277">
         <v>46470.32956542214</v>
       </c>
       <c r="E277">
-        <v>67023.43731445468</v>
+        <v>67023.43731445467</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5080,16 +5080,16 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>26273.79037585339</v>
+        <v>26273.7903758534</v>
       </c>
       <c r="C278">
-        <v>36502.10236997512</v>
+        <v>36502.10236997514</v>
       </c>
       <c r="D278">
-        <v>56994.28829275328</v>
+        <v>56994.28829275331</v>
       </c>
       <c r="E278">
-        <v>77993.04452289701</v>
+        <v>77993.04452289696</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5097,16 +5097,16 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>31026.63733670737</v>
+        <v>31026.63733670738</v>
       </c>
       <c r="C279">
         <v>39618.23298114404</v>
       </c>
       <c r="D279">
-        <v>56595.24312851734</v>
+        <v>56595.24312851732</v>
       </c>
       <c r="E279">
-        <v>75059.29940029776</v>
+        <v>75059.29940029772</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5114,16 +5114,16 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>31026.63733670737</v>
+        <v>31026.63733670738</v>
       </c>
       <c r="C280">
         <v>39618.23298114404</v>
       </c>
       <c r="D280">
-        <v>56595.24312851734</v>
+        <v>56595.24312851732</v>
       </c>
       <c r="E280">
-        <v>75059.29940029776</v>
+        <v>75059.29940029772</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5131,7 +5131,7 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>9254.669501333581</v>
+        <v>9254.669501333583</v>
       </c>
       <c r="C281">
         <v>15440.09954990924</v>
@@ -5148,7 +5148,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>7996.133038856884</v>
+        <v>7996.133038856882</v>
       </c>
       <c r="C282">
         <v>13477.62440410547</v>
@@ -5165,7 +5165,7 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>7996.133038856884</v>
+        <v>7996.133038856882</v>
       </c>
       <c r="C283">
         <v>13477.62440410547</v>
@@ -5182,7 +5182,7 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>7996.133038856884</v>
+        <v>7996.133038856882</v>
       </c>
       <c r="C284">
         <v>13477.62440410547</v>
@@ -5205,10 +5205,10 @@
         <v>14077.60468992366</v>
       </c>
       <c r="D285">
-        <v>31858.93045819193</v>
+        <v>31858.93045819192</v>
       </c>
       <c r="E285">
-        <v>49781.7055406082</v>
+        <v>49781.70554060823</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5216,16 +5216,16 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>31026.63733670737</v>
+        <v>31026.63733670738</v>
       </c>
       <c r="C286">
         <v>39618.23298114404</v>
       </c>
       <c r="D286">
-        <v>56595.24312851734</v>
+        <v>56595.24312851732</v>
       </c>
       <c r="E286">
-        <v>75059.29940029776</v>
+        <v>75059.29940029772</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5233,16 +5233,16 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>36525.16875352144</v>
+        <v>36525.16875352143</v>
       </c>
       <c r="C287">
-        <v>45224.73009659922</v>
+        <v>45224.73009659923</v>
       </c>
       <c r="D287">
-        <v>64428.09696154069</v>
+        <v>64428.09696154072</v>
       </c>
       <c r="E287">
-        <v>85589.78087640399</v>
+        <v>85589.78087640397</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5256,10 +5256,10 @@
         <v>39156.99293312919</v>
       </c>
       <c r="D288">
-        <v>59702.89431703924</v>
+        <v>59702.89431703926</v>
       </c>
       <c r="E288">
-        <v>81555.31590063093</v>
+        <v>81555.31590063091</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5267,16 +5267,16 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>38036.60812523224</v>
+        <v>38036.60812523223</v>
       </c>
       <c r="C289">
-        <v>46466.9664182902</v>
+        <v>46466.96641829022</v>
       </c>
       <c r="D289">
-        <v>65438.43778934659</v>
+        <v>65438.43778934656</v>
       </c>
       <c r="E289">
-        <v>86245.90254802967</v>
+        <v>86245.90254802974</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5284,16 +5284,16 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>36525.16875352144</v>
+        <v>36525.16875352143</v>
       </c>
       <c r="C290">
-        <v>45224.73009659922</v>
+        <v>45224.73009659923</v>
       </c>
       <c r="D290">
-        <v>64428.09696154069</v>
+        <v>64428.09696154072</v>
       </c>
       <c r="E290">
-        <v>85589.78087640399</v>
+        <v>85589.78087640397</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5301,16 +5301,16 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>27142.86576218528</v>
+        <v>27142.86576218529</v>
       </c>
       <c r="C291">
         <v>36134.26384127975</v>
       </c>
       <c r="D291">
-        <v>56855.71282835834</v>
+        <v>56855.71282835837</v>
       </c>
       <c r="E291">
-        <v>78796.11704884535</v>
+        <v>78796.11704884536</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5318,16 +5318,16 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>31714.3790608754</v>
+        <v>31714.37906087541</v>
       </c>
       <c r="C292">
         <v>40524.27569849235</v>
       </c>
       <c r="D292">
-        <v>59372.82152288846</v>
+        <v>59372.82152288844</v>
       </c>
       <c r="E292">
-        <v>79408.58642863491</v>
+        <v>79408.5864286349</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5335,16 +5335,16 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>32288.41976736664</v>
+        <v>32288.41976736665</v>
       </c>
       <c r="C293">
         <v>41336.54384664306</v>
       </c>
       <c r="D293">
-        <v>60555.74774054106</v>
+        <v>60555.74774054105</v>
       </c>
       <c r="E293">
-        <v>80833.95079357609</v>
+        <v>80833.95079357606</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5352,16 +5352,16 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>31714.3790608754</v>
+        <v>31714.37906087541</v>
       </c>
       <c r="C294">
         <v>40524.27569849235</v>
       </c>
       <c r="D294">
-        <v>59372.82152288846</v>
+        <v>59372.82152288844</v>
       </c>
       <c r="E294">
-        <v>79408.58642863491</v>
+        <v>79408.5864286349</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5372,13 +5372,13 @@
         <v>27118.30238361542</v>
       </c>
       <c r="C295">
-        <v>34232.0477282935</v>
+        <v>34232.04772829349</v>
       </c>
       <c r="D295">
-        <v>53928.54194424117</v>
+        <v>53928.54194424119</v>
       </c>
       <c r="E295">
-        <v>75695.34732572488</v>
+        <v>75695.34732572486</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5386,13 +5386,13 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>29336.90135386824</v>
+        <v>29336.90135386825</v>
       </c>
       <c r="C296">
-        <v>37101.87186139189</v>
+        <v>37101.87186139188</v>
       </c>
       <c r="D296">
-        <v>57438.43418482821</v>
+        <v>57438.43418482822</v>
       </c>
       <c r="E296">
         <v>79363.82852303567</v>
@@ -5406,13 +5406,13 @@
         <v>28843.99886603006</v>
       </c>
       <c r="C297">
-        <v>37895.87453766214</v>
+        <v>37895.87453766215</v>
       </c>
       <c r="D297">
         <v>59763.33625635906</v>
       </c>
       <c r="E297">
-        <v>81985.32309773321</v>
+        <v>81985.32309773318</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5420,16 +5420,16 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>26006.72424259004</v>
+        <v>26006.72424259003</v>
       </c>
       <c r="C298">
         <v>33811.48921363075</v>
       </c>
       <c r="D298">
-        <v>54240.76962373107</v>
+        <v>54240.76962373112</v>
       </c>
       <c r="E298">
-        <v>76260.62124385231</v>
+        <v>76260.62124385232</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5440,13 +5440,13 @@
         <v>25674.83977287775</v>
       </c>
       <c r="C299">
-        <v>34140.90913469809</v>
+        <v>34140.90913469808</v>
       </c>
       <c r="D299">
-        <v>55714.57178932014</v>
+        <v>55714.57178932015</v>
       </c>
       <c r="E299">
-        <v>78226.16609456173</v>
+        <v>78226.16609456179</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5457,13 +5457,13 @@
         <v>27118.30238361542</v>
       </c>
       <c r="C300">
-        <v>34232.0477282935</v>
+        <v>34232.04772829349</v>
       </c>
       <c r="D300">
-        <v>53928.54194424117</v>
+        <v>53928.54194424119</v>
       </c>
       <c r="E300">
-        <v>75695.34732572488</v>
+        <v>75695.34732572486</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5477,7 +5477,7 @@
         <v>37961.35183418082</v>
       </c>
       <c r="D301">
-        <v>58804.70428854528</v>
+        <v>58804.70428854527</v>
       </c>
       <c r="E301">
         <v>80862.03785505747</v>
@@ -5488,13 +5488,13 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>26817.14448698334</v>
+        <v>26817.14448698332</v>
       </c>
       <c r="C302">
         <v>35524.18089150289</v>
       </c>
       <c r="D302">
-        <v>56933.81505255204</v>
+        <v>56933.81505255202</v>
       </c>
       <c r="E302">
         <v>79346.21560197145</v>
@@ -5505,13 +5505,13 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>26817.14448698334</v>
+        <v>26817.14448698332</v>
       </c>
       <c r="C303">
         <v>35524.18089150289</v>
       </c>
       <c r="D303">
-        <v>56933.81505255204</v>
+        <v>56933.81505255202</v>
       </c>
       <c r="E303">
         <v>79346.21560197145</v>
@@ -5525,13 +5525,13 @@
         <v>23972.43757055704</v>
       </c>
       <c r="C304">
-        <v>31285.43756068105</v>
+        <v>31285.43756068104</v>
       </c>
       <c r="D304">
-        <v>51652.82359387704</v>
+        <v>51652.82359387707</v>
       </c>
       <c r="E304">
-        <v>73949.84644337172</v>
+        <v>73949.84644337173</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5542,13 +5542,13 @@
         <v>23972.43757055704</v>
       </c>
       <c r="C305">
-        <v>31285.43756068105</v>
+        <v>31285.43756068104</v>
       </c>
       <c r="D305">
-        <v>51652.82359387704</v>
+        <v>51652.82359387707</v>
       </c>
       <c r="E305">
-        <v>73949.84644337172</v>
+        <v>73949.84644337173</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5556,13 +5556,13 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>25395.89027851851</v>
+        <v>25395.89027851852</v>
       </c>
       <c r="C306">
         <v>30879.48104662249</v>
       </c>
       <c r="D306">
-        <v>49144.75334279813</v>
+        <v>49144.75334279814</v>
       </c>
       <c r="E306">
         <v>70422.71740899477</v>
@@ -5576,13 +5576,13 @@
         <v>23972.43757055704</v>
       </c>
       <c r="C307">
-        <v>31285.43756068105</v>
+        <v>31285.43756068104</v>
       </c>
       <c r="D307">
-        <v>51652.82359387704</v>
+        <v>51652.82359387707</v>
       </c>
       <c r="E307">
-        <v>73949.84644337172</v>
+        <v>73949.84644337173</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5590,16 +5590,16 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>25660.77234961779</v>
+        <v>25660.7723496178</v>
       </c>
       <c r="C308">
-        <v>31517.70452245558</v>
+        <v>31517.70452245559</v>
       </c>
       <c r="D308">
         <v>50388.80455164211</v>
       </c>
       <c r="E308">
-        <v>72053.71236664761</v>
+        <v>72053.71236664758</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5607,13 +5607,13 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>25395.89027851851</v>
+        <v>25395.89027851852</v>
       </c>
       <c r="C309">
         <v>30879.48104662249</v>
       </c>
       <c r="D309">
-        <v>49144.75334279813</v>
+        <v>49144.75334279814</v>
       </c>
       <c r="E309">
         <v>70422.71740899477</v>
@@ -5630,7 +5630,7 @@
         <v>32090.46506572211</v>
       </c>
       <c r="D310">
-        <v>53027.35643971644</v>
+        <v>53027.35643971645</v>
       </c>
       <c r="E310">
         <v>75586.25497026289</v>
@@ -5641,16 +5641,16 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>10864.90693265737</v>
+        <v>10864.90693265736</v>
       </c>
       <c r="C311">
-        <v>15742.69200905614</v>
+        <v>15742.69200905613</v>
       </c>
       <c r="D311">
         <v>33490.1118335206</v>
       </c>
       <c r="E311">
-        <v>54467.52621647531</v>
+        <v>54467.52621647529</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5658,16 +5658,16 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>10864.90693265737</v>
+        <v>10864.90693265736</v>
       </c>
       <c r="C312">
-        <v>15742.69200905614</v>
+        <v>15742.69200905613</v>
       </c>
       <c r="D312">
         <v>33490.1118335206</v>
       </c>
       <c r="E312">
-        <v>54467.52621647531</v>
+        <v>54467.52621647529</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5675,16 +5675,16 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>10864.90693265737</v>
+        <v>10864.90693265736</v>
       </c>
       <c r="C313">
-        <v>15742.69200905614</v>
+        <v>15742.69200905613</v>
       </c>
       <c r="D313">
         <v>33490.1118335206</v>
       </c>
       <c r="E313">
-        <v>54467.52621647531</v>
+        <v>54467.52621647529</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5692,16 +5692,16 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>10864.90693265737</v>
+        <v>10864.90693265736</v>
       </c>
       <c r="C314">
-        <v>15742.69200905614</v>
+        <v>15742.69200905613</v>
       </c>
       <c r="D314">
         <v>33490.1118335206</v>
       </c>
       <c r="E314">
-        <v>54467.52621647531</v>
+        <v>54467.52621647529</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5712,13 +5712,13 @@
         <v>39551.00920161798</v>
       </c>
       <c r="C315">
-        <v>48427.97739903523</v>
+        <v>48427.97739903524</v>
       </c>
       <c r="D315">
-        <v>67375.77707126737</v>
+        <v>67375.7770712674</v>
       </c>
       <c r="E315">
-        <v>87389.79632230528</v>
+        <v>87389.79632230529</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5726,16 +5726,16 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>47248.01867456878</v>
+        <v>47248.0186745688</v>
       </c>
       <c r="C316">
         <v>55559.58283444252</v>
       </c>
       <c r="D316">
-        <v>72603.49655807551</v>
+        <v>72603.49655807552</v>
       </c>
       <c r="E316">
-        <v>91122.96492038794</v>
+        <v>91122.96492038797</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5743,16 +5743,16 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>46390.34968312676</v>
+        <v>46390.34968312675</v>
       </c>
       <c r="C317">
-        <v>54205.53511704185</v>
+        <v>54205.53511704187</v>
       </c>
       <c r="D317">
-        <v>71093.76943386126</v>
+        <v>71093.76943386125</v>
       </c>
       <c r="E317">
-        <v>89841.68347409477</v>
+        <v>89841.68347409485</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5760,13 +5760,13 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>43480.31062363755</v>
+        <v>43480.31062363756</v>
       </c>
       <c r="C318">
-        <v>51660.04656909467</v>
+        <v>51660.04656909463</v>
       </c>
       <c r="D318">
-        <v>69600.60227180531</v>
+        <v>69600.60227180534</v>
       </c>
       <c r="E318">
         <v>89122.37970364709</v>
@@ -5777,13 +5777,13 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>38231.75582307266</v>
+        <v>38231.75582307269</v>
       </c>
       <c r="C319">
         <v>46332.82876016625</v>
       </c>
       <c r="D319">
-        <v>64727.91488658642</v>
+        <v>64727.91488658643</v>
       </c>
       <c r="E319">
         <v>84869.25681907398</v>
@@ -5794,16 +5794,16 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>40673.84995635242</v>
+        <v>40673.8499563524</v>
       </c>
       <c r="C320">
-        <v>48841.21382960803</v>
+        <v>48841.21382960802</v>
       </c>
       <c r="D320">
         <v>66957.0383027592</v>
       </c>
       <c r="E320">
-        <v>86880.16353003509</v>
+        <v>86880.16353003513</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5811,16 +5811,16 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>43496.54319745457</v>
+        <v>43496.54319745456</v>
       </c>
       <c r="C321">
-        <v>51517.90124439463</v>
+        <v>51517.9012443946</v>
       </c>
       <c r="D321">
-        <v>69106.45553808923</v>
+        <v>69106.45553808927</v>
       </c>
       <c r="E321">
-        <v>88518.29105701367</v>
+        <v>88518.29105701369</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5828,16 +5828,16 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>37580.78164094528</v>
+        <v>37580.78164094527</v>
       </c>
       <c r="C322">
-        <v>46721.842283568</v>
+        <v>46721.84228356798</v>
       </c>
       <c r="D322">
-        <v>66279.38229865322</v>
+        <v>66279.38229865319</v>
       </c>
       <c r="E322">
-        <v>86753.38246252439</v>
+        <v>86753.38246252442</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5845,16 +5845,16 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>40930.33335511406</v>
+        <v>40930.33335511404</v>
       </c>
       <c r="C323">
-        <v>48564.89239166325</v>
+        <v>48564.89239166323</v>
       </c>
       <c r="D323">
         <v>66303.71474285924</v>
       </c>
       <c r="E323">
-        <v>86214.61065795872</v>
+        <v>86214.61065795875</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5862,16 +5862,16 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>40930.33335511406</v>
+        <v>40930.33335511404</v>
       </c>
       <c r="C324">
-        <v>48564.89239166325</v>
+        <v>48564.89239166323</v>
       </c>
       <c r="D324">
         <v>66303.71474285924</v>
       </c>
       <c r="E324">
-        <v>86214.61065795872</v>
+        <v>86214.61065795875</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5879,16 +5879,16 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>40930.33335511406</v>
+        <v>40930.33335511404</v>
       </c>
       <c r="C325">
-        <v>48564.89239166325</v>
+        <v>48564.89239166323</v>
       </c>
       <c r="D325">
         <v>66303.71474285924</v>
       </c>
       <c r="E325">
-        <v>86214.61065795872</v>
+        <v>86214.61065795875</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5899,13 +5899,13 @@
         <v>46026.75234667973</v>
       </c>
       <c r="C326">
-        <v>54048.39540108158</v>
+        <v>54048.39540108161</v>
       </c>
       <c r="D326">
         <v>70902.8570666552</v>
       </c>
       <c r="E326">
-        <v>89674.75628534183</v>
+        <v>89674.75628534186</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -5916,13 +5916,13 @@
         <v>34728.42952048866</v>
       </c>
       <c r="C327">
-        <v>43953.58303968896</v>
+        <v>43953.58303968894</v>
       </c>
       <c r="D327">
-        <v>63684.49716266441</v>
+        <v>63684.49716266437</v>
       </c>
       <c r="E327">
-        <v>84311.60866584671</v>
+        <v>84311.60866584668</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -5933,13 +5933,13 @@
         <v>34728.42952048866</v>
       </c>
       <c r="C328">
-        <v>43953.58303968896</v>
+        <v>43953.58303968894</v>
       </c>
       <c r="D328">
-        <v>63684.49716266441</v>
+        <v>63684.49716266437</v>
       </c>
       <c r="E328">
-        <v>84311.60866584671</v>
+        <v>84311.60866584668</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -5950,13 +5950,13 @@
         <v>32531.18562179777</v>
       </c>
       <c r="C329">
-        <v>41467.94778525368</v>
+        <v>41467.9477852537</v>
       </c>
       <c r="D329">
-        <v>61612.81792198602</v>
+        <v>61612.81792198597</v>
       </c>
       <c r="E329">
-        <v>82766.19747395534</v>
+        <v>82766.19747395533</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -5967,13 +5967,13 @@
         <v>34728.42952048866</v>
       </c>
       <c r="C330">
-        <v>43953.58303968896</v>
+        <v>43953.58303968894</v>
       </c>
       <c r="D330">
-        <v>63684.49716266441</v>
+        <v>63684.49716266437</v>
       </c>
       <c r="E330">
-        <v>84311.60866584671</v>
+        <v>84311.60866584668</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -5981,16 +5981,16 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>34212.32272689392</v>
+        <v>34212.32272689391</v>
       </c>
       <c r="C331">
         <v>42980.44514421724</v>
       </c>
       <c r="D331">
-        <v>62414.72927533583</v>
+        <v>62414.72927533585</v>
       </c>
       <c r="E331">
-        <v>83024.39206771474</v>
+        <v>83024.39206771471</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -5998,16 +5998,16 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>39270.41166671776</v>
+        <v>39270.41166671777</v>
       </c>
       <c r="C332">
-        <v>48104.14412840192</v>
+        <v>48104.14412840193</v>
       </c>
       <c r="D332">
         <v>68155.30205356427</v>
       </c>
       <c r="E332">
-        <v>88558.92759658655</v>
+        <v>88558.92759658649</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6021,10 +6021,10 @@
         <v>51013.80028832816</v>
       </c>
       <c r="D333">
-        <v>71199.59796926822</v>
+        <v>71199.59796926823</v>
       </c>
       <c r="E333">
-        <v>90788.06414139844</v>
+        <v>90788.06414139843</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6035,13 +6035,13 @@
         <v>45079.24810684758</v>
       </c>
       <c r="C334">
-        <v>55230.39099850483</v>
+        <v>55230.39099850484</v>
       </c>
       <c r="D334">
-        <v>75209.02493252154</v>
+        <v>75209.02493252148</v>
       </c>
       <c r="E334">
-        <v>93721.09328386125</v>
+        <v>93721.09328386124</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6049,16 +6049,16 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>41880.83656330829</v>
+        <v>41880.83656330828</v>
       </c>
       <c r="C335">
-        <v>52220.75163858482</v>
+        <v>52220.7516385848</v>
       </c>
       <c r="D335">
         <v>73038.34420932895</v>
       </c>
       <c r="E335">
-        <v>92266.49801111453</v>
+        <v>92266.49801111451</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6066,16 +6066,16 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>36754.55181447588</v>
+        <v>36754.55181447589</v>
       </c>
       <c r="C336">
-        <v>45075.34096312871</v>
+        <v>45075.34096312873</v>
       </c>
       <c r="D336">
-        <v>65050.91388136496</v>
+        <v>65050.91388136497</v>
       </c>
       <c r="E336">
-        <v>85886.78623290226</v>
+        <v>85886.78623290232</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6083,16 +6083,16 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>17671.09824101567</v>
+        <v>17671.09824101566</v>
       </c>
       <c r="C337">
         <v>24601.3700003194</v>
       </c>
       <c r="D337">
-        <v>37953.24352388954</v>
+        <v>37953.24352388953</v>
       </c>
       <c r="E337">
-        <v>50640.09148051388</v>
+        <v>50640.09148051386</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6103,13 +6103,13 @@
         <v>17427.72405430184</v>
       </c>
       <c r="C338">
-        <v>24979.44238474194</v>
+        <v>24979.44238474193</v>
       </c>
       <c r="D338">
-        <v>39041.02494495856</v>
+        <v>39041.02494495855</v>
       </c>
       <c r="E338">
-        <v>51829.96421161255</v>
+        <v>51829.96421161256</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6117,16 +6117,16 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>17671.09824101567</v>
+        <v>17671.09824101566</v>
       </c>
       <c r="C339">
         <v>24601.3700003194</v>
       </c>
       <c r="D339">
-        <v>37953.24352388954</v>
+        <v>37953.24352388953</v>
       </c>
       <c r="E339">
-        <v>50640.09148051388</v>
+        <v>50640.09148051386</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6137,13 +6137,13 @@
         <v>15066.79267241397</v>
       </c>
       <c r="C340">
-        <v>21696.49333457976</v>
+        <v>21696.49333457977</v>
       </c>
       <c r="D340">
-        <v>35269.04499313379</v>
+        <v>35269.04499313377</v>
       </c>
       <c r="E340">
-        <v>47670.05988281669</v>
+        <v>47670.0598828167</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6154,13 +6154,13 @@
         <v>15066.79267241397</v>
       </c>
       <c r="C341">
-        <v>21696.49333457976</v>
+        <v>21696.49333457977</v>
       </c>
       <c r="D341">
-        <v>35269.04499313379</v>
+        <v>35269.04499313377</v>
       </c>
       <c r="E341">
-        <v>47670.05988281669</v>
+        <v>47670.0598828167</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6177,7 +6177,7 @@
         <v>39754.01687867656</v>
       </c>
       <c r="E342">
-        <v>53503.20502666749</v>
+        <v>53503.20502666748</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6194,7 +6194,7 @@
         <v>39754.01687867656</v>
       </c>
       <c r="E343">
-        <v>53503.20502666749</v>
+        <v>53503.20502666748</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6205,13 +6205,13 @@
         <v>15066.79267241397</v>
       </c>
       <c r="C344">
-        <v>21696.49333457976</v>
+        <v>21696.49333457977</v>
       </c>
       <c r="D344">
-        <v>35269.04499313379</v>
+        <v>35269.04499313377</v>
       </c>
       <c r="E344">
-        <v>47670.05988281669</v>
+        <v>47670.0598828167</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6225,10 +6225,10 @@
         <v>16101.40687658051</v>
       </c>
       <c r="D345">
-        <v>29535.81558045108</v>
+        <v>29535.81558045109</v>
       </c>
       <c r="E345">
-        <v>41601.82371473099</v>
+        <v>41601.82371473098</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6242,10 +6242,10 @@
         <v>16101.40687658051</v>
       </c>
       <c r="D346">
-        <v>29535.81558045108</v>
+        <v>29535.81558045109</v>
       </c>
       <c r="E346">
-        <v>41601.82371473099</v>
+        <v>41601.82371473098</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6259,10 +6259,10 @@
         <v>16101.40687658051</v>
       </c>
       <c r="D347">
-        <v>29535.81558045108</v>
+        <v>29535.81558045109</v>
       </c>
       <c r="E347">
-        <v>41601.82371473099</v>
+        <v>41601.82371473098</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6270,16 +6270,16 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>18795.72165628207</v>
+        <v>18795.72165628206</v>
       </c>
       <c r="C348">
-        <v>25498.05327520462</v>
+        <v>25498.05327520461</v>
       </c>
       <c r="D348">
-        <v>38121.70178557912</v>
+        <v>38121.70178557913</v>
       </c>
       <c r="E348">
-        <v>50155.71531602638</v>
+        <v>50155.71531602633</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6287,16 +6287,16 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>18795.72165628207</v>
+        <v>18795.72165628206</v>
       </c>
       <c r="C349">
-        <v>25498.05327520462</v>
+        <v>25498.05327520461</v>
       </c>
       <c r="D349">
-        <v>38121.70178557912</v>
+        <v>38121.70178557913</v>
       </c>
       <c r="E349">
-        <v>50155.71531602638</v>
+        <v>50155.71531602633</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6304,16 +6304,16 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>18795.72165628207</v>
+        <v>18795.72165628206</v>
       </c>
       <c r="C350">
-        <v>25498.05327520462</v>
+        <v>25498.05327520461</v>
       </c>
       <c r="D350">
-        <v>38121.70178557912</v>
+        <v>38121.70178557913</v>
       </c>
       <c r="E350">
-        <v>50155.71531602638</v>
+        <v>50155.71531602633</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6321,16 +6321,16 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>8205.011484164041</v>
+        <v>8205.011484164042</v>
       </c>
       <c r="C351">
-        <v>13740.09347985558</v>
+        <v>13740.09347985559</v>
       </c>
       <c r="D351">
         <v>27164.24881507598</v>
       </c>
       <c r="E351">
-        <v>38145.58853923531</v>
+        <v>38145.58853923533</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6338,16 +6338,16 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>8205.011484164041</v>
+        <v>8205.011484164042</v>
       </c>
       <c r="C352">
-        <v>13740.09347985558</v>
+        <v>13740.09347985559</v>
       </c>
       <c r="D352">
         <v>27164.24881507598</v>
       </c>
       <c r="E352">
-        <v>38145.58853923531</v>
+        <v>38145.58853923533</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6358,13 +6358,13 @@
         <v>23929.4659192144</v>
       </c>
       <c r="C353">
-        <v>30888.50470982939</v>
+        <v>30888.5047098294</v>
       </c>
       <c r="D353">
         <v>44546.18922241149</v>
       </c>
       <c r="E353">
-        <v>60024.37625597246</v>
+        <v>60024.37625597245</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6372,16 +6372,16 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>21993.72850190132</v>
+        <v>21993.72850190131</v>
       </c>
       <c r="C354">
-        <v>27645.91938377864</v>
+        <v>27645.91938377863</v>
       </c>
       <c r="D354">
-        <v>39089.05330991482</v>
+        <v>39089.05330991481</v>
       </c>
       <c r="E354">
-        <v>51824.45844587066</v>
+        <v>51824.45844587067</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6392,13 +6392,13 @@
         <v>23929.4659192144</v>
       </c>
       <c r="C355">
-        <v>30888.50470982939</v>
+        <v>30888.5047098294</v>
       </c>
       <c r="D355">
         <v>44546.18922241149</v>
       </c>
       <c r="E355">
-        <v>60024.37625597246</v>
+        <v>60024.37625597245</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6406,13 +6406,13 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>17801.91825510213</v>
+        <v>17801.91825510214</v>
       </c>
       <c r="C356">
         <v>24176.78581501662</v>
       </c>
       <c r="D356">
-        <v>36376.29988810892</v>
+        <v>36376.29988810891</v>
       </c>
       <c r="E356">
         <v>48459.05093683892</v>
@@ -6423,13 +6423,13 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>17801.91825510213</v>
+        <v>17801.91825510214</v>
       </c>
       <c r="C357">
         <v>24176.78581501662</v>
       </c>
       <c r="D357">
-        <v>36376.29988810892</v>
+        <v>36376.29988810891</v>
       </c>
       <c r="E357">
         <v>48459.05093683892</v>
@@ -6440,13 +6440,13 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>17801.91825510213</v>
+        <v>17801.91825510214</v>
       </c>
       <c r="C358">
         <v>24176.78581501662</v>
       </c>
       <c r="D358">
-        <v>36376.29988810892</v>
+        <v>36376.29988810891</v>
       </c>
       <c r="E358">
         <v>48459.05093683892</v>
@@ -6463,7 +6463,7 @@
         <v>14984.09685665238</v>
       </c>
       <c r="D359">
-        <v>28417.67093105345</v>
+        <v>28417.67093105344</v>
       </c>
       <c r="E359">
         <v>39361.96876972966</v>
@@ -6480,7 +6480,7 @@
         <v>14984.09685665238</v>
       </c>
       <c r="D360">
-        <v>28417.67093105345</v>
+        <v>28417.67093105344</v>
       </c>
       <c r="E360">
         <v>39361.96876972966</v>
@@ -6491,13 +6491,13 @@
         <v>360</v>
       </c>
       <c r="B361">
-        <v>28985.80583527391</v>
+        <v>28985.80583527392</v>
       </c>
       <c r="C361">
         <v>38162.35160556995</v>
       </c>
       <c r="D361">
-        <v>60290.1978874054</v>
+        <v>60290.19788740544</v>
       </c>
       <c r="E361">
         <v>82014.79154844857</v>
@@ -6508,16 +6508,16 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>19816.90024218719</v>
+        <v>19816.9002421872</v>
       </c>
       <c r="C362">
-        <v>29275.82699452606</v>
+        <v>29275.82699452608</v>
       </c>
       <c r="D362">
-        <v>53927.71560881403</v>
+        <v>53927.715608814</v>
       </c>
       <c r="E362">
-        <v>78058.05913943703</v>
+        <v>78058.05913943701</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6528,13 +6528,13 @@
         <v>21224.72941235107</v>
       </c>
       <c r="C363">
-        <v>27927.11709349673</v>
+        <v>27927.11709349672</v>
       </c>
       <c r="D363">
-        <v>50453.39637392818</v>
+        <v>50453.3963739282</v>
       </c>
       <c r="E363">
-        <v>74571.22838958033</v>
+        <v>74571.2283895803</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6542,16 +6542,16 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <v>26237.41989279565</v>
+        <v>26237.41989279564</v>
       </c>
       <c r="C364">
-        <v>34778.29248092906</v>
+        <v>34778.29248092904</v>
       </c>
       <c r="D364">
-        <v>57337.35943412747</v>
+        <v>57337.35943412749</v>
       </c>
       <c r="E364">
-        <v>80854.59496821482</v>
+        <v>80854.59496821478</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6559,16 +6559,16 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>26237.41989279565</v>
+        <v>26237.41989279564</v>
       </c>
       <c r="C365">
-        <v>34778.29248092906</v>
+        <v>34778.29248092904</v>
       </c>
       <c r="D365">
-        <v>57337.35943412747</v>
+        <v>57337.35943412749</v>
       </c>
       <c r="E365">
-        <v>80854.59496821482</v>
+        <v>80854.59496821478</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6579,13 +6579,13 @@
         <v>18526.17099285598</v>
       </c>
       <c r="C366">
-        <v>26487.14368485559</v>
+        <v>26487.14368485558</v>
       </c>
       <c r="D366">
         <v>49387.42199426649</v>
       </c>
       <c r="E366">
-        <v>74029.88632425747</v>
+        <v>74029.88632425746</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6596,13 +6596,13 @@
         <v>18526.17099285598</v>
       </c>
       <c r="C367">
-        <v>26487.14368485559</v>
+        <v>26487.14368485558</v>
       </c>
       <c r="D367">
         <v>49387.42199426649</v>
       </c>
       <c r="E367">
-        <v>74029.88632425747</v>
+        <v>74029.88632425746</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6610,16 +6610,16 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>21339.47718869607</v>
+        <v>21339.47718869606</v>
       </c>
       <c r="C368">
-        <v>28885.11208355648</v>
+        <v>28885.11208355647</v>
       </c>
       <c r="D368">
         <v>51230.77275928341</v>
       </c>
       <c r="E368">
-        <v>75377.04564286832</v>
+        <v>75377.04564286831</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6630,13 +6630,13 @@
         <v>18526.17099285598</v>
       </c>
       <c r="C369">
-        <v>26487.14368485559</v>
+        <v>26487.14368485558</v>
       </c>
       <c r="D369">
         <v>49387.42199426649</v>
       </c>
       <c r="E369">
-        <v>74029.88632425747</v>
+        <v>74029.88632425746</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6647,13 +6647,13 @@
         <v>12604.28215400532</v>
       </c>
       <c r="C370">
-        <v>19506.81462021577</v>
+        <v>19506.81462021578</v>
       </c>
       <c r="D370">
         <v>42151.34986171201</v>
       </c>
       <c r="E370">
-        <v>66870.73785513871</v>
+        <v>66870.73785513868</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6664,13 +6664,13 @@
         <v>12604.28215400532</v>
       </c>
       <c r="C371">
-        <v>19506.81462021577</v>
+        <v>19506.81462021578</v>
       </c>
       <c r="D371">
         <v>42151.34986171201</v>
       </c>
       <c r="E371">
-        <v>66870.73785513871</v>
+        <v>66870.73785513868</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6681,13 +6681,13 @@
         <v>12604.28215400532</v>
       </c>
       <c r="C372">
-        <v>19506.81462021577</v>
+        <v>19506.81462021578</v>
       </c>
       <c r="D372">
         <v>42151.34986171201</v>
       </c>
       <c r="E372">
-        <v>66870.73785513871</v>
+        <v>66870.73785513868</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6695,13 +6695,13 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>28230.65515687621</v>
+        <v>28230.6551568762</v>
       </c>
       <c r="C373">
-        <v>37163.32882152328</v>
+        <v>37163.32882152329</v>
       </c>
       <c r="D373">
-        <v>53386.80511486877</v>
+        <v>53386.80511486874</v>
       </c>
       <c r="E373">
         <v>69543.65846426082</v>
@@ -6712,16 +6712,16 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>23173.56689072468</v>
+        <v>23173.56689072467</v>
       </c>
       <c r="C374">
-        <v>30659.03667773929</v>
+        <v>30659.0366777393</v>
       </c>
       <c r="D374">
         <v>46060.89790677413</v>
       </c>
       <c r="E374">
-        <v>61963.23962396022</v>
+        <v>61963.23962396021</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6729,13 +6729,13 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>28230.65515687621</v>
+        <v>28230.6551568762</v>
       </c>
       <c r="C375">
-        <v>37163.32882152328</v>
+        <v>37163.32882152329</v>
       </c>
       <c r="D375">
-        <v>53386.80511486877</v>
+        <v>53386.80511486874</v>
       </c>
       <c r="E375">
         <v>69543.65846426082</v>
@@ -6749,13 +6749,13 @@
         <v>22865.16768234826</v>
       </c>
       <c r="C376">
-        <v>30610.09534365559</v>
+        <v>30610.09534365558</v>
       </c>
       <c r="D376">
-        <v>46384.95355129068</v>
+        <v>46384.9535512907</v>
       </c>
       <c r="E376">
-        <v>62637.77170196722</v>
+        <v>62637.77170196721</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6766,13 +6766,13 @@
         <v>22865.16768234826</v>
       </c>
       <c r="C377">
-        <v>30610.09534365559</v>
+        <v>30610.09534365558</v>
       </c>
       <c r="D377">
-        <v>46384.95355129068</v>
+        <v>46384.9535512907</v>
       </c>
       <c r="E377">
-        <v>62637.77170196722</v>
+        <v>62637.77170196721</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6780,13 +6780,13 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>34672.98595438306</v>
+        <v>34672.98595438305</v>
       </c>
       <c r="C378">
-        <v>43236.2575929034</v>
+        <v>43236.25759290338</v>
       </c>
       <c r="D378">
-        <v>58125.67610694891</v>
+        <v>58125.67610694892</v>
       </c>
       <c r="E378">
         <v>74113.41349343424</v>
@@ -6797,13 +6797,13 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>34672.98595438306</v>
+        <v>34672.98595438305</v>
       </c>
       <c r="C379">
-        <v>43236.2575929034</v>
+        <v>43236.25759290338</v>
       </c>
       <c r="D379">
-        <v>58125.67610694891</v>
+        <v>58125.67610694892</v>
       </c>
       <c r="E379">
         <v>74113.41349343424</v>
@@ -6814,13 +6814,13 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>34672.98595438306</v>
+        <v>34672.98595438305</v>
       </c>
       <c r="C380">
-        <v>43236.2575929034</v>
+        <v>43236.25759290338</v>
       </c>
       <c r="D380">
-        <v>58125.67610694891</v>
+        <v>58125.67610694892</v>
       </c>
       <c r="E380">
         <v>74113.41349343424</v>
@@ -6831,13 +6831,13 @@
         <v>380</v>
       </c>
       <c r="B381">
-        <v>34672.98595438306</v>
+        <v>34672.98595438305</v>
       </c>
       <c r="C381">
-        <v>43236.2575929034</v>
+        <v>43236.25759290338</v>
       </c>
       <c r="D381">
-        <v>58125.67610694891</v>
+        <v>58125.67610694892</v>
       </c>
       <c r="E381">
         <v>74113.41349343424</v>
@@ -6851,13 +6851,13 @@
         <v>30896.52398665696</v>
       </c>
       <c r="C382">
-        <v>39208.49866228232</v>
+        <v>39208.49866228233</v>
       </c>
       <c r="D382">
-        <v>53866.91118633133</v>
+        <v>53866.91118633132</v>
       </c>
       <c r="E382">
-        <v>69810.07705791776</v>
+        <v>69810.07705791775</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6868,13 +6868,13 @@
         <v>30031.85389549843</v>
       </c>
       <c r="C383">
-        <v>38982.08153566058</v>
+        <v>38982.08153566061</v>
       </c>
       <c r="D383">
-        <v>56346.60406870701</v>
+        <v>56346.60406870704</v>
       </c>
       <c r="E383">
-        <v>74447.92083687799</v>
+        <v>74447.92083687798</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6888,10 +6888,10 @@
         <v>36307.99728358847</v>
       </c>
       <c r="D384">
-        <v>53624.10211440264</v>
+        <v>53624.10211440265</v>
       </c>
       <c r="E384">
-        <v>71444.57288273897</v>
+        <v>71444.57288273894</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -6902,10 +6902,10 @@
         <v>39909.99850579337</v>
       </c>
       <c r="C385">
-        <v>49148.67845377414</v>
+        <v>49148.67845377413</v>
       </c>
       <c r="D385">
-        <v>65508.22562259437</v>
+        <v>65508.22562259438</v>
       </c>
       <c r="E385">
         <v>82593.04362166129</v>
@@ -6922,10 +6922,10 @@
         <v>28061.35778143162</v>
       </c>
       <c r="D386">
-        <v>46478.755778099</v>
+        <v>46478.75577809903</v>
       </c>
       <c r="E386">
-        <v>65895.94478341975</v>
+        <v>65895.94478341979</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -6939,10 +6939,10 @@
         <v>28061.35778143162</v>
       </c>
       <c r="D387">
-        <v>46478.755778099</v>
+        <v>46478.75577809903</v>
       </c>
       <c r="E387">
-        <v>65895.94478341975</v>
+        <v>65895.94478341979</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -6950,7 +6950,7 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>7062.223609753927</v>
+        <v>7062.223609753929</v>
       </c>
       <c r="C388">
         <v>10406.62844993606</v>
@@ -6959,7 +6959,7 @@
         <v>24731.08319095373</v>
       </c>
       <c r="E388">
-        <v>42447.13177433082</v>
+        <v>42447.13177433081</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -6967,16 +6967,16 @@
         <v>388</v>
       </c>
       <c r="B389">
-        <v>5588.382146379166</v>
+        <v>5588.382146379167</v>
       </c>
       <c r="C389">
         <v>9111.13863952825</v>
       </c>
       <c r="D389">
-        <v>25282.01515709326</v>
+        <v>25282.01515709327</v>
       </c>
       <c r="E389">
-        <v>45359.05785437379</v>
+        <v>45359.05785437383</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -6984,16 +6984,16 @@
         <v>389</v>
       </c>
       <c r="B390">
-        <v>5588.382146379166</v>
+        <v>5588.382146379167</v>
       </c>
       <c r="C390">
         <v>9111.13863952825</v>
       </c>
       <c r="D390">
-        <v>25282.01515709326</v>
+        <v>25282.01515709327</v>
       </c>
       <c r="E390">
-        <v>45359.05785437379</v>
+        <v>45359.05785437383</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -7001,7 +7001,7 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>7062.223609753927</v>
+        <v>7062.223609753929</v>
       </c>
       <c r="C391">
         <v>10406.62844993606</v>
@@ -7010,7 +7010,7 @@
         <v>24731.08319095373</v>
       </c>
       <c r="E391">
-        <v>42447.13177433082</v>
+        <v>42447.13177433081</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -7018,16 +7018,16 @@
         <v>391</v>
       </c>
       <c r="B392">
-        <v>5588.382146379166</v>
+        <v>5588.382146379167</v>
       </c>
       <c r="C392">
         <v>9111.13863952825</v>
       </c>
       <c r="D392">
-        <v>25282.01515709326</v>
+        <v>25282.01515709327</v>
       </c>
       <c r="E392">
-        <v>45359.05785437379</v>
+        <v>45359.05785437383</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -7035,10 +7035,10 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>4788.794162866303</v>
+        <v>4788.794162866304</v>
       </c>
       <c r="C393">
-        <v>7475.352870606829</v>
+        <v>7475.35287060683</v>
       </c>
       <c r="D393">
         <v>19175.67071194881</v>
@@ -7052,10 +7052,10 @@
         <v>393</v>
       </c>
       <c r="B394">
-        <v>4788.794162866303</v>
+        <v>4788.794162866304</v>
       </c>
       <c r="C394">
-        <v>7475.352870606829</v>
+        <v>7475.35287060683</v>
       </c>
       <c r="D394">
         <v>19175.67071194881</v>
@@ -7069,16 +7069,16 @@
         <v>394</v>
       </c>
       <c r="B395">
-        <v>5365.678332771584</v>
+        <v>5365.678332771587</v>
       </c>
       <c r="C395">
-        <v>8268.217775056373</v>
+        <v>8268.217775056371</v>
       </c>
       <c r="D395">
         <v>20433.04729112382</v>
       </c>
       <c r="E395">
-        <v>34783.87981438437</v>
+        <v>34783.8798143844</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -7086,16 +7086,16 @@
         <v>395</v>
       </c>
       <c r="B396">
-        <v>5365.678332771584</v>
+        <v>5365.678332771587</v>
       </c>
       <c r="C396">
-        <v>8268.217775056373</v>
+        <v>8268.217775056371</v>
       </c>
       <c r="D396">
         <v>20433.04729112382</v>
       </c>
       <c r="E396">
-        <v>34783.87981438437</v>
+        <v>34783.8798143844</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -7103,16 +7103,16 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>6346.641203470335</v>
+        <v>6346.641203470336</v>
       </c>
       <c r="C397">
-        <v>9119.133433714902</v>
+        <v>9119.133433714896</v>
       </c>
       <c r="D397">
         <v>21640.73567758932</v>
       </c>
       <c r="E397">
-        <v>36970.82648452706</v>
+        <v>36970.82648452703</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -7120,16 +7120,16 @@
         <v>397</v>
       </c>
       <c r="B398">
-        <v>6346.641203470335</v>
+        <v>6346.641203470336</v>
       </c>
       <c r="C398">
-        <v>9119.133433714902</v>
+        <v>9119.133433714896</v>
       </c>
       <c r="D398">
         <v>21640.73567758932</v>
       </c>
       <c r="E398">
-        <v>36970.82648452706</v>
+        <v>36970.82648452703</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -7137,16 +7137,16 @@
         <v>398</v>
       </c>
       <c r="B399">
-        <v>5351.054115109509</v>
+        <v>5351.05411510951</v>
       </c>
       <c r="C399">
-        <v>8806.689217288682</v>
+        <v>8806.689217288684</v>
       </c>
       <c r="D399">
-        <v>26557.01294381656</v>
+        <v>26557.01294381655</v>
       </c>
       <c r="E399">
-        <v>48537.59917460212</v>
+        <v>48537.59917460213</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -7154,16 +7154,16 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>4883.175599996861</v>
+        <v>4883.175599996859</v>
       </c>
       <c r="C400">
-        <v>8267.30091318777</v>
+        <v>8267.300913187773</v>
       </c>
       <c r="D400">
-        <v>26048.19697178811</v>
+        <v>26048.1969717881</v>
       </c>
       <c r="E400">
-        <v>48231.24931614174</v>
+        <v>48231.24931614171</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7171,16 +7171,16 @@
         <v>400</v>
       </c>
       <c r="B401">
-        <v>5351.054115109509</v>
+        <v>5351.05411510951</v>
       </c>
       <c r="C401">
-        <v>8806.689217288682</v>
+        <v>8806.689217288684</v>
       </c>
       <c r="D401">
-        <v>26557.01294381656</v>
+        <v>26557.01294381655</v>
       </c>
       <c r="E401">
-        <v>48537.59917460212</v>
+        <v>48537.59917460213</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -7188,13 +7188,13 @@
         <v>401</v>
       </c>
       <c r="B402">
-        <v>4989.784845036546</v>
+        <v>4989.784845036548</v>
       </c>
       <c r="C402">
-        <v>7739.935273915598</v>
+        <v>7739.935273915597</v>
       </c>
       <c r="D402">
-        <v>23953.7669095652</v>
+        <v>23953.76690956521</v>
       </c>
       <c r="E402">
         <v>44287.94936699321</v>
@@ -7205,16 +7205,16 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>4883.175599996861</v>
+        <v>4883.175599996859</v>
       </c>
       <c r="C403">
-        <v>8267.30091318777</v>
+        <v>8267.300913187773</v>
       </c>
       <c r="D403">
-        <v>26048.19697178811</v>
+        <v>26048.1969717881</v>
       </c>
       <c r="E403">
-        <v>48231.24931614174</v>
+        <v>48231.24931614171</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -7228,7 +7228,7 @@
         <v>6996.058165502593</v>
       </c>
       <c r="D404">
-        <v>23276.12994311847</v>
+        <v>23276.12994311848</v>
       </c>
       <c r="E404">
         <v>43544.31415047349</v>
@@ -7245,7 +7245,7 @@
         <v>6996.058165502593</v>
       </c>
       <c r="D405">
-        <v>23276.12994311847</v>
+        <v>23276.12994311848</v>
       </c>
       <c r="E405">
         <v>43544.31415047349</v>
@@ -7262,7 +7262,7 @@
         <v>6996.058165502593</v>
       </c>
       <c r="D406">
-        <v>23276.12994311847</v>
+        <v>23276.12994311848</v>
       </c>
       <c r="E406">
         <v>43544.31415047349</v>
@@ -7273,16 +7273,16 @@
         <v>406</v>
       </c>
       <c r="B407">
-        <v>3544.135747289383</v>
+        <v>3544.135747289382</v>
       </c>
       <c r="C407">
-        <v>6127.070201859969</v>
+        <v>6127.070201859968</v>
       </c>
       <c r="D407">
         <v>21519.85208894535</v>
       </c>
       <c r="E407">
-        <v>40651.59752078712</v>
+        <v>40651.59752078709</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -7290,16 +7290,16 @@
         <v>407</v>
       </c>
       <c r="B408">
-        <v>3544.135747289383</v>
+        <v>3544.135747289382</v>
       </c>
       <c r="C408">
-        <v>6127.070201859969</v>
+        <v>6127.070201859968</v>
       </c>
       <c r="D408">
         <v>21519.85208894535</v>
       </c>
       <c r="E408">
-        <v>40651.59752078712</v>
+        <v>40651.59752078709</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -7307,16 +7307,16 @@
         <v>408</v>
       </c>
       <c r="B409">
-        <v>3544.135747289383</v>
+        <v>3544.135747289382</v>
       </c>
       <c r="C409">
-        <v>6127.070201859969</v>
+        <v>6127.070201859968</v>
       </c>
       <c r="D409">
         <v>21519.85208894535</v>
       </c>
       <c r="E409">
-        <v>40651.59752078712</v>
+        <v>40651.59752078709</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -7327,13 +7327,13 @@
         <v>11559.3760038552</v>
       </c>
       <c r="C410">
-        <v>19344.97877771065</v>
+        <v>19344.97877771066</v>
       </c>
       <c r="D410">
-        <v>43293.43381311123</v>
+        <v>43293.43381311127</v>
       </c>
       <c r="E410">
-        <v>69589.96150656832</v>
+        <v>69589.96150656835</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -7341,13 +7341,13 @@
         <v>410</v>
       </c>
       <c r="B411">
-        <v>8981.038145880331</v>
+        <v>8981.038145880333</v>
       </c>
       <c r="C411">
-        <v>15095.66038748307</v>
+        <v>15095.66038748306</v>
       </c>
       <c r="D411">
-        <v>36831.61206783119</v>
+        <v>36831.61206783117</v>
       </c>
       <c r="E411">
         <v>62221.40299563333</v>
@@ -7358,13 +7358,13 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>8981.038145880331</v>
+        <v>8981.038145880333</v>
       </c>
       <c r="C412">
-        <v>15095.66038748307</v>
+        <v>15095.66038748306</v>
       </c>
       <c r="D412">
-        <v>36831.61206783119</v>
+        <v>36831.61206783117</v>
       </c>
       <c r="E412">
         <v>62221.40299563333</v>
@@ -7375,16 +7375,16 @@
         <v>412</v>
       </c>
       <c r="B413">
-        <v>8044.122926078941</v>
+        <v>8044.122926078945</v>
       </c>
       <c r="C413">
         <v>14096.32279009204</v>
       </c>
       <c r="D413">
-        <v>35720.36190331986</v>
+        <v>35720.36190331987</v>
       </c>
       <c r="E413">
-        <v>60498.74396730291</v>
+        <v>60498.74396730286</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -7395,13 +7395,13 @@
         <v>11559.3760038552</v>
       </c>
       <c r="C414">
-        <v>19344.97877771065</v>
+        <v>19344.97877771066</v>
       </c>
       <c r="D414">
-        <v>43293.43381311123</v>
+        <v>43293.43381311127</v>
       </c>
       <c r="E414">
-        <v>69589.96150656832</v>
+        <v>69589.96150656835</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -7409,7 +7409,7 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>10502.56791818298</v>
+        <v>10502.56791818299</v>
       </c>
       <c r="C415">
         <v>17254.15289502485</v>
@@ -7418,7 +7418,7 @@
         <v>40236.4681167142</v>
       </c>
       <c r="E415">
-        <v>66439.29645872087</v>
+        <v>66439.29645872086</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7426,7 +7426,7 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>10502.56791818298</v>
+        <v>10502.56791818299</v>
       </c>
       <c r="C416">
         <v>17254.15289502485</v>
@@ -7435,7 +7435,7 @@
         <v>40236.4681167142</v>
       </c>
       <c r="E416">
-        <v>66439.29645872087</v>
+        <v>66439.29645872086</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -7443,16 +7443,16 @@
         <v>416</v>
       </c>
       <c r="B417">
-        <v>6685.218250199922</v>
+        <v>6685.21825019992</v>
       </c>
       <c r="C417">
-        <v>11037.26292572518</v>
+        <v>11037.26292572519</v>
       </c>
       <c r="D417">
         <v>30841.77578997621</v>
       </c>
       <c r="E417">
-        <v>55122.7505368519</v>
+        <v>55122.75053685188</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -7460,16 +7460,16 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>6685.218250199922</v>
+        <v>6685.21825019992</v>
       </c>
       <c r="C418">
-        <v>11037.26292572518</v>
+        <v>11037.26292572519</v>
       </c>
       <c r="D418">
         <v>30841.77578997621</v>
       </c>
       <c r="E418">
-        <v>55122.7505368519</v>
+        <v>55122.75053685188</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -7477,16 +7477,16 @@
         <v>418</v>
       </c>
       <c r="B419">
-        <v>12731.46632290793</v>
+        <v>12731.46632290792</v>
       </c>
       <c r="C419">
         <v>17864.39511138591</v>
       </c>
       <c r="D419">
-        <v>36187.35839405745</v>
+        <v>36187.35839405747</v>
       </c>
       <c r="E419">
-        <v>58231.13987545031</v>
+        <v>58231.13987545032</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -7494,16 +7494,16 @@
         <v>419</v>
       </c>
       <c r="B420">
-        <v>12731.46632290793</v>
+        <v>12731.46632290792</v>
       </c>
       <c r="C420">
         <v>17864.39511138591</v>
       </c>
       <c r="D420">
-        <v>36187.35839405745</v>
+        <v>36187.35839405747</v>
       </c>
       <c r="E420">
-        <v>58231.13987545031</v>
+        <v>58231.13987545032</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -7514,13 +7514,13 @@
         <v>12536.23958013459</v>
       </c>
       <c r="C421">
-        <v>17431.25965065878</v>
+        <v>17431.25965065879</v>
       </c>
       <c r="D421">
-        <v>35155.66447346164</v>
+        <v>35155.66447346165</v>
       </c>
       <c r="E421">
-        <v>56562.67545808867</v>
+        <v>56562.67545808862</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -7531,13 +7531,13 @@
         <v>12536.23958013459</v>
       </c>
       <c r="C422">
-        <v>17431.25965065878</v>
+        <v>17431.25965065879</v>
       </c>
       <c r="D422">
-        <v>35155.66447346164</v>
+        <v>35155.66447346165</v>
       </c>
       <c r="E422">
-        <v>56562.67545808867</v>
+        <v>56562.67545808862</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -7545,16 +7545,16 @@
         <v>422</v>
       </c>
       <c r="B423">
-        <v>12731.46632290793</v>
+        <v>12731.46632290792</v>
       </c>
       <c r="C423">
         <v>17864.39511138591</v>
       </c>
       <c r="D423">
-        <v>36187.35839405745</v>
+        <v>36187.35839405747</v>
       </c>
       <c r="E423">
-        <v>58231.13987545031</v>
+        <v>58231.13987545032</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7562,16 +7562,16 @@
         <v>423</v>
       </c>
       <c r="B424">
-        <v>12731.46632290793</v>
+        <v>12731.46632290792</v>
       </c>
       <c r="C424">
         <v>17864.39511138591</v>
       </c>
       <c r="D424">
-        <v>36187.35839405745</v>
+        <v>36187.35839405747</v>
       </c>
       <c r="E424">
-        <v>58231.13987545031</v>
+        <v>58231.13987545032</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -7582,13 +7582,13 @@
         <v>12536.23958013459</v>
       </c>
       <c r="C425">
-        <v>17431.25965065878</v>
+        <v>17431.25965065879</v>
       </c>
       <c r="D425">
-        <v>35155.66447346164</v>
+        <v>35155.66447346165</v>
       </c>
       <c r="E425">
-        <v>56562.67545808867</v>
+        <v>56562.67545808862</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -7596,16 +7596,16 @@
         <v>425</v>
       </c>
       <c r="B426">
-        <v>12731.46632290793</v>
+        <v>12731.46632290792</v>
       </c>
       <c r="C426">
         <v>17864.39511138591</v>
       </c>
       <c r="D426">
-        <v>36187.35839405745</v>
+        <v>36187.35839405747</v>
       </c>
       <c r="E426">
-        <v>58231.13987545031</v>
+        <v>58231.13987545032</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -7613,16 +7613,16 @@
         <v>426</v>
       </c>
       <c r="B427">
-        <v>12731.46632290793</v>
+        <v>12731.46632290792</v>
       </c>
       <c r="C427">
         <v>17864.39511138591</v>
       </c>
       <c r="D427">
-        <v>36187.35839405745</v>
+        <v>36187.35839405747</v>
       </c>
       <c r="E427">
-        <v>58231.13987545031</v>
+        <v>58231.13987545032</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -7630,16 +7630,16 @@
         <v>427</v>
       </c>
       <c r="B428">
-        <v>12731.46632290793</v>
+        <v>12731.46632290792</v>
       </c>
       <c r="C428">
         <v>17864.39511138591</v>
       </c>
       <c r="D428">
-        <v>36187.35839405745</v>
+        <v>36187.35839405747</v>
       </c>
       <c r="E428">
-        <v>58231.13987545031</v>
+        <v>58231.13987545032</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -7647,16 +7647,16 @@
         <v>428</v>
       </c>
       <c r="B429">
-        <v>12731.46632290793</v>
+        <v>12731.46632290792</v>
       </c>
       <c r="C429">
         <v>17864.39511138591</v>
       </c>
       <c r="D429">
-        <v>36187.35839405745</v>
+        <v>36187.35839405747</v>
       </c>
       <c r="E429">
-        <v>58231.13987545031</v>
+        <v>58231.13987545032</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -7664,16 +7664,16 @@
         <v>429</v>
       </c>
       <c r="B430">
-        <v>12731.46632290793</v>
+        <v>12731.46632290792</v>
       </c>
       <c r="C430">
         <v>17864.39511138591</v>
       </c>
       <c r="D430">
-        <v>36187.35839405745</v>
+        <v>36187.35839405747</v>
       </c>
       <c r="E430">
-        <v>58231.13987545031</v>
+        <v>58231.13987545032</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -7684,13 +7684,13 @@
         <v>12536.23958013459</v>
       </c>
       <c r="C431">
-        <v>17431.25965065878</v>
+        <v>17431.25965065879</v>
       </c>
       <c r="D431">
-        <v>35155.66447346164</v>
+        <v>35155.66447346165</v>
       </c>
       <c r="E431">
-        <v>56562.67545808867</v>
+        <v>56562.67545808862</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -7698,16 +7698,16 @@
         <v>431</v>
       </c>
       <c r="B432">
-        <v>12731.46632290793</v>
+        <v>12731.46632290792</v>
       </c>
       <c r="C432">
         <v>17864.39511138591</v>
       </c>
       <c r="D432">
-        <v>36187.35839405745</v>
+        <v>36187.35839405747</v>
       </c>
       <c r="E432">
-        <v>58231.13987545031</v>
+        <v>58231.13987545032</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -7715,16 +7715,16 @@
         <v>432</v>
       </c>
       <c r="B433">
-        <v>12731.46632290793</v>
+        <v>12731.46632290792</v>
       </c>
       <c r="C433">
         <v>17864.39511138591</v>
       </c>
       <c r="D433">
-        <v>36187.35839405745</v>
+        <v>36187.35839405747</v>
       </c>
       <c r="E433">
-        <v>58231.13987545031</v>
+        <v>58231.13987545032</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -7732,16 +7732,16 @@
         <v>433</v>
       </c>
       <c r="B434">
-        <v>9371.331992957348</v>
+        <v>9371.33199295735</v>
       </c>
       <c r="C434">
         <v>13376.76840348781</v>
       </c>
       <c r="D434">
-        <v>29092.15744906807</v>
+        <v>29092.15744906806</v>
       </c>
       <c r="E434">
-        <v>48126.01302857167</v>
+        <v>48126.01302857164</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -7749,16 +7749,16 @@
         <v>434</v>
       </c>
       <c r="B435">
-        <v>12731.46632290793</v>
+        <v>12731.46632290792</v>
       </c>
       <c r="C435">
         <v>17864.39511138591</v>
       </c>
       <c r="D435">
-        <v>36187.35839405745</v>
+        <v>36187.35839405747</v>
       </c>
       <c r="E435">
-        <v>58231.13987545031</v>
+        <v>58231.13987545032</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -7766,16 +7766,16 @@
         <v>435</v>
       </c>
       <c r="B436">
-        <v>7271.584538099912</v>
+        <v>7271.584538099911</v>
       </c>
       <c r="C436">
         <v>11667.39710291478</v>
       </c>
       <c r="D436">
-        <v>28305.60756229591</v>
+        <v>28305.60756229594</v>
       </c>
       <c r="E436">
-        <v>47932.74045164123</v>
+        <v>47932.74045164126</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -7786,7 +7786,7 @@
         <v>6310.464585125631</v>
       </c>
       <c r="C437">
-        <v>9791.320261248356</v>
+        <v>9791.320261248355</v>
       </c>
       <c r="D437">
         <v>23684.37855719167</v>
@@ -7803,7 +7803,7 @@
         <v>6310.464585125631</v>
       </c>
       <c r="C438">
-        <v>9791.320261248356</v>
+        <v>9791.320261248355</v>
       </c>
       <c r="D438">
         <v>23684.37855719167</v>
@@ -7820,7 +7820,7 @@
         <v>6310.464585125631</v>
       </c>
       <c r="C439">
-        <v>9791.320261248356</v>
+        <v>9791.320261248355</v>
       </c>
       <c r="D439">
         <v>23684.37855719167</v>
@@ -7837,7 +7837,7 @@
         <v>6310.464585125631</v>
       </c>
       <c r="C440">
-        <v>9791.320261248356</v>
+        <v>9791.320261248355</v>
       </c>
       <c r="D440">
         <v>23684.37855719167</v>
@@ -7854,7 +7854,7 @@
         <v>6310.464585125631</v>
       </c>
       <c r="C441">
-        <v>9791.320261248356</v>
+        <v>9791.320261248355</v>
       </c>
       <c r="D441">
         <v>23684.37855719167</v>
@@ -7871,7 +7871,7 @@
         <v>6310.464585125631</v>
       </c>
       <c r="C442">
-        <v>9791.320261248356</v>
+        <v>9791.320261248355</v>
       </c>
       <c r="D442">
         <v>23684.37855719167</v>
@@ -7888,7 +7888,7 @@
         <v>6310.464585125631</v>
       </c>
       <c r="C443">
-        <v>9791.320261248356</v>
+        <v>9791.320261248355</v>
       </c>
       <c r="D443">
         <v>23684.37855719167</v>
@@ -7905,7 +7905,7 @@
         <v>6310.464585125631</v>
       </c>
       <c r="C444">
-        <v>9791.320261248356</v>
+        <v>9791.320261248355</v>
       </c>
       <c r="D444">
         <v>23684.37855719167</v>
@@ -7922,7 +7922,7 @@
         <v>6310.464585125631</v>
       </c>
       <c r="C445">
-        <v>9791.320261248356</v>
+        <v>9791.320261248355</v>
       </c>
       <c r="D445">
         <v>23684.37855719167</v>
@@ -7939,7 +7939,7 @@
         <v>6310.464585125631</v>
       </c>
       <c r="C446">
-        <v>9791.320261248356</v>
+        <v>9791.320261248355</v>
       </c>
       <c r="D446">
         <v>23684.37855719167</v>
@@ -7956,7 +7956,7 @@
         <v>6310.464585125631</v>
       </c>
       <c r="C447">
-        <v>9791.320261248356</v>
+        <v>9791.320261248355</v>
       </c>
       <c r="D447">
         <v>23684.37855719167</v>
@@ -7970,16 +7970,16 @@
         <v>447</v>
       </c>
       <c r="B448">
-        <v>21236.76047677965</v>
+        <v>21236.76047677964</v>
       </c>
       <c r="C448">
-        <v>25789.8158159792</v>
+        <v>25789.81581597919</v>
       </c>
       <c r="D448">
-        <v>43563.99237945888</v>
+        <v>43563.9923794589</v>
       </c>
       <c r="E448">
-        <v>65463.94208129801</v>
+        <v>65463.94208129802</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -7987,16 +7987,16 @@
         <v>448</v>
       </c>
       <c r="B449">
-        <v>21236.76047677965</v>
+        <v>21236.76047677964</v>
       </c>
       <c r="C449">
-        <v>25789.8158159792</v>
+        <v>25789.81581597919</v>
       </c>
       <c r="D449">
-        <v>43563.99237945888</v>
+        <v>43563.9923794589</v>
       </c>
       <c r="E449">
-        <v>65463.94208129801</v>
+        <v>65463.94208129802</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -8004,16 +8004,16 @@
         <v>449</v>
       </c>
       <c r="B450">
-        <v>21236.76047677965</v>
+        <v>21236.76047677964</v>
       </c>
       <c r="C450">
-        <v>25789.8158159792</v>
+        <v>25789.81581597919</v>
       </c>
       <c r="D450">
-        <v>43563.99237945888</v>
+        <v>43563.9923794589</v>
       </c>
       <c r="E450">
-        <v>65463.94208129801</v>
+        <v>65463.94208129802</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -8021,16 +8021,16 @@
         <v>450</v>
       </c>
       <c r="B451">
-        <v>21236.76047677965</v>
+        <v>21236.76047677964</v>
       </c>
       <c r="C451">
-        <v>25789.8158159792</v>
+        <v>25789.81581597919</v>
       </c>
       <c r="D451">
-        <v>43563.99237945888</v>
+        <v>43563.9923794589</v>
       </c>
       <c r="E451">
-        <v>65463.94208129801</v>
+        <v>65463.94208129802</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -8038,16 +8038,16 @@
         <v>451</v>
       </c>
       <c r="B452">
-        <v>21236.76047677965</v>
+        <v>21236.76047677964</v>
       </c>
       <c r="C452">
-        <v>25789.8158159792</v>
+        <v>25789.81581597919</v>
       </c>
       <c r="D452">
-        <v>43563.99237945888</v>
+        <v>43563.9923794589</v>
       </c>
       <c r="E452">
-        <v>65463.94208129801</v>
+        <v>65463.94208129802</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -8055,16 +8055,16 @@
         <v>452</v>
       </c>
       <c r="B453">
-        <v>21236.76047677965</v>
+        <v>21236.76047677964</v>
       </c>
       <c r="C453">
-        <v>25789.8158159792</v>
+        <v>25789.81581597919</v>
       </c>
       <c r="D453">
-        <v>43563.99237945888</v>
+        <v>43563.9923794589</v>
       </c>
       <c r="E453">
-        <v>65463.94208129801</v>
+        <v>65463.94208129802</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -8072,10 +8072,10 @@
         <v>453</v>
       </c>
       <c r="B454">
-        <v>16246.15545627222</v>
+        <v>16246.15545627223</v>
       </c>
       <c r="C454">
-        <v>21594.4829280877</v>
+        <v>21594.48292808771</v>
       </c>
       <c r="D454">
         <v>40219.81836621575</v>
@@ -8089,10 +8089,10 @@
         <v>454</v>
       </c>
       <c r="B455">
-        <v>16246.15545627222</v>
+        <v>16246.15545627223</v>
       </c>
       <c r="C455">
-        <v>21594.4829280877</v>
+        <v>21594.48292808771</v>
       </c>
       <c r="D455">
         <v>40219.81836621575</v>
@@ -8106,10 +8106,10 @@
         <v>455</v>
       </c>
       <c r="B456">
-        <v>16246.15545627222</v>
+        <v>16246.15545627223</v>
       </c>
       <c r="C456">
-        <v>21594.4829280877</v>
+        <v>21594.48292808771</v>
       </c>
       <c r="D456">
         <v>40219.81836621575</v>
@@ -8123,10 +8123,10 @@
         <v>456</v>
       </c>
       <c r="B457">
-        <v>16246.15545627222</v>
+        <v>16246.15545627223</v>
       </c>
       <c r="C457">
-        <v>21594.4829280877</v>
+        <v>21594.48292808771</v>
       </c>
       <c r="D457">
         <v>40219.81836621575</v>
@@ -8140,10 +8140,10 @@
         <v>457</v>
       </c>
       <c r="B458">
-        <v>16246.15545627222</v>
+        <v>16246.15545627223</v>
       </c>
       <c r="C458">
-        <v>21594.4829280877</v>
+        <v>21594.48292808771</v>
       </c>
       <c r="D458">
         <v>40219.81836621575</v>
@@ -8157,10 +8157,10 @@
         <v>458</v>
       </c>
       <c r="B459">
-        <v>16246.15545627222</v>
+        <v>16246.15545627223</v>
       </c>
       <c r="C459">
-        <v>21594.4829280877</v>
+        <v>21594.48292808771</v>
       </c>
       <c r="D459">
         <v>40219.81836621575</v>
@@ -8174,10 +8174,10 @@
         <v>459</v>
       </c>
       <c r="B460">
-        <v>16246.15545627222</v>
+        <v>16246.15545627223</v>
       </c>
       <c r="C460">
-        <v>21594.4829280877</v>
+        <v>21594.48292808771</v>
       </c>
       <c r="D460">
         <v>40219.81836621575</v>
@@ -8191,10 +8191,10 @@
         <v>460</v>
       </c>
       <c r="B461">
-        <v>16246.15545627222</v>
+        <v>16246.15545627223</v>
       </c>
       <c r="C461">
-        <v>21594.4829280877</v>
+        <v>21594.48292808771</v>
       </c>
       <c r="D461">
         <v>40219.81836621575</v>
@@ -8208,10 +8208,10 @@
         <v>461</v>
       </c>
       <c r="B462">
-        <v>16246.15545627222</v>
+        <v>16246.15545627223</v>
       </c>
       <c r="C462">
-        <v>21594.4829280877</v>
+        <v>21594.48292808771</v>
       </c>
       <c r="D462">
         <v>40219.81836621575</v>
@@ -8225,16 +8225,16 @@
         <v>462</v>
       </c>
       <c r="B463">
-        <v>12731.46632290793</v>
+        <v>12731.46632290792</v>
       </c>
       <c r="C463">
         <v>17864.39511138591</v>
       </c>
       <c r="D463">
-        <v>36187.35839405745</v>
+        <v>36187.35839405747</v>
       </c>
       <c r="E463">
-        <v>58231.13987545031</v>
+        <v>58231.13987545032</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -8242,16 +8242,16 @@
         <v>463</v>
       </c>
       <c r="B464">
-        <v>12731.46632290793</v>
+        <v>12731.46632290792</v>
       </c>
       <c r="C464">
         <v>17864.39511138591</v>
       </c>
       <c r="D464">
-        <v>36187.35839405745</v>
+        <v>36187.35839405747</v>
       </c>
       <c r="E464">
-        <v>58231.13987545031</v>
+        <v>58231.13987545032</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -8259,16 +8259,16 @@
         <v>464</v>
       </c>
       <c r="B465">
-        <v>9371.331992957348</v>
+        <v>9371.33199295735</v>
       </c>
       <c r="C465">
         <v>13376.76840348781</v>
       </c>
       <c r="D465">
-        <v>29092.15744906807</v>
+        <v>29092.15744906806</v>
       </c>
       <c r="E465">
-        <v>48126.01302857167</v>
+        <v>48126.01302857164</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -8276,16 +8276,16 @@
         <v>465</v>
       </c>
       <c r="B466">
-        <v>9371.331992957348</v>
+        <v>9371.33199295735</v>
       </c>
       <c r="C466">
         <v>13376.76840348781</v>
       </c>
       <c r="D466">
-        <v>29092.15744906807</v>
+        <v>29092.15744906806</v>
       </c>
       <c r="E466">
-        <v>48126.01302857167</v>
+        <v>48126.01302857164</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -8293,16 +8293,16 @@
         <v>466</v>
       </c>
       <c r="B467">
-        <v>12731.46632290793</v>
+        <v>12731.46632290792</v>
       </c>
       <c r="C467">
         <v>17864.39511138591</v>
       </c>
       <c r="D467">
-        <v>36187.35839405745</v>
+        <v>36187.35839405747</v>
       </c>
       <c r="E467">
-        <v>58231.13987545031</v>
+        <v>58231.13987545032</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -8310,16 +8310,16 @@
         <v>467</v>
       </c>
       <c r="B468">
-        <v>21236.76047677965</v>
+        <v>21236.76047677964</v>
       </c>
       <c r="C468">
-        <v>25789.8158159792</v>
+        <v>25789.81581597919</v>
       </c>
       <c r="D468">
-        <v>43563.99237945888</v>
+        <v>43563.9923794589</v>
       </c>
       <c r="E468">
-        <v>65463.94208129801</v>
+        <v>65463.94208129802</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -8327,16 +8327,16 @@
         <v>468</v>
       </c>
       <c r="B469">
-        <v>21236.76047677965</v>
+        <v>21236.76047677964</v>
       </c>
       <c r="C469">
-        <v>25789.8158159792</v>
+        <v>25789.81581597919</v>
       </c>
       <c r="D469">
-        <v>43563.99237945888</v>
+        <v>43563.9923794589</v>
       </c>
       <c r="E469">
-        <v>65463.94208129801</v>
+        <v>65463.94208129802</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -8344,16 +8344,16 @@
         <v>469</v>
       </c>
       <c r="B470">
-        <v>21236.76047677965</v>
+        <v>21236.76047677964</v>
       </c>
       <c r="C470">
-        <v>25789.8158159792</v>
+        <v>25789.81581597919</v>
       </c>
       <c r="D470">
-        <v>43563.99237945888</v>
+        <v>43563.9923794589</v>
       </c>
       <c r="E470">
-        <v>65463.94208129801</v>
+        <v>65463.94208129802</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -8361,16 +8361,16 @@
         <v>470</v>
       </c>
       <c r="B471">
-        <v>12731.46632290793</v>
+        <v>12731.46632290792</v>
       </c>
       <c r="C471">
         <v>17864.39511138591</v>
       </c>
       <c r="D471">
-        <v>36187.35839405745</v>
+        <v>36187.35839405747</v>
       </c>
       <c r="E471">
-        <v>58231.13987545031</v>
+        <v>58231.13987545032</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -8378,10 +8378,10 @@
         <v>471</v>
       </c>
       <c r="B472">
-        <v>16246.15545627222</v>
+        <v>16246.15545627223</v>
       </c>
       <c r="C472">
-        <v>21594.4829280877</v>
+        <v>21594.48292808771</v>
       </c>
       <c r="D472">
         <v>40219.81836621575</v>
@@ -8395,16 +8395,16 @@
         <v>472</v>
       </c>
       <c r="B473">
-        <v>9371.331992957348</v>
+        <v>9371.33199295735</v>
       </c>
       <c r="C473">
         <v>13376.76840348781</v>
       </c>
       <c r="D473">
-        <v>29092.15744906807</v>
+        <v>29092.15744906806</v>
       </c>
       <c r="E473">
-        <v>48126.01302857167</v>
+        <v>48126.01302857164</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -8412,16 +8412,16 @@
         <v>473</v>
       </c>
       <c r="B474">
-        <v>9371.331992957348</v>
+        <v>9371.33199295735</v>
       </c>
       <c r="C474">
         <v>13376.76840348781</v>
       </c>
       <c r="D474">
-        <v>29092.15744906807</v>
+        <v>29092.15744906806</v>
       </c>
       <c r="E474">
-        <v>48126.01302857167</v>
+        <v>48126.01302857164</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -8429,16 +8429,16 @@
         <v>474</v>
       </c>
       <c r="B475">
-        <v>7271.584538099912</v>
+        <v>7271.584538099911</v>
       </c>
       <c r="C475">
         <v>11667.39710291478</v>
       </c>
       <c r="D475">
-        <v>28305.60756229591</v>
+        <v>28305.60756229594</v>
       </c>
       <c r="E475">
-        <v>47932.74045164123</v>
+        <v>47932.74045164126</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -8446,16 +8446,16 @@
         <v>475</v>
       </c>
       <c r="B476">
-        <v>8129.057558136576</v>
+        <v>8129.057558136575</v>
       </c>
       <c r="C476">
         <v>12132.36751871357</v>
       </c>
       <c r="D476">
-        <v>28254.94092837369</v>
+        <v>28254.94092837367</v>
       </c>
       <c r="E476">
-        <v>47292.98439683163</v>
+        <v>47292.9843968316</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -8463,16 +8463,16 @@
         <v>476</v>
       </c>
       <c r="B477">
-        <v>8129.057558136576</v>
+        <v>8129.057558136575</v>
       </c>
       <c r="C477">
         <v>12132.36751871357</v>
       </c>
       <c r="D477">
-        <v>28254.94092837369</v>
+        <v>28254.94092837367</v>
       </c>
       <c r="E477">
-        <v>47292.98439683163</v>
+        <v>47292.9843968316</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -8480,16 +8480,16 @@
         <v>477</v>
       </c>
       <c r="B478">
-        <v>9518.346212568344</v>
+        <v>9518.346212568349</v>
       </c>
       <c r="C478">
         <v>14076.99277293795</v>
       </c>
       <c r="D478">
-        <v>31674.8440342422</v>
+        <v>31674.84403424218</v>
       </c>
       <c r="E478">
-        <v>53130.61539447356</v>
+        <v>53130.61539447357</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -8497,16 +8497,16 @@
         <v>478</v>
       </c>
       <c r="B479">
-        <v>8474.316314727352</v>
+        <v>8474.316314727355</v>
       </c>
       <c r="C479">
         <v>12807.84483953273</v>
       </c>
       <c r="D479">
-        <v>29791.51384133902</v>
+        <v>29791.51384133903</v>
       </c>
       <c r="E479">
-        <v>50612.77505129435</v>
+        <v>50612.77505129437</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -8514,7 +8514,7 @@
         <v>479</v>
       </c>
       <c r="B480">
-        <v>9654.45095125646</v>
+        <v>9654.450951256462</v>
       </c>
       <c r="C480">
         <v>14444.54483465078</v>
@@ -8523,7 +8523,7 @@
         <v>32674.45062246286</v>
       </c>
       <c r="E480">
-        <v>54819.24223986104</v>
+        <v>54819.24223986102</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -8531,16 +8531,16 @@
         <v>480</v>
       </c>
       <c r="B481">
-        <v>9518.346212568344</v>
+        <v>9518.346212568349</v>
       </c>
       <c r="C481">
         <v>14076.99277293795</v>
       </c>
       <c r="D481">
-        <v>31674.8440342422</v>
+        <v>31674.84403424218</v>
       </c>
       <c r="E481">
-        <v>53130.61539447356</v>
+        <v>53130.61539447357</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -8548,16 +8548,16 @@
         <v>481</v>
       </c>
       <c r="B482">
-        <v>9518.346212568344</v>
+        <v>9518.346212568349</v>
       </c>
       <c r="C482">
         <v>14076.99277293795</v>
       </c>
       <c r="D482">
-        <v>31674.8440342422</v>
+        <v>31674.84403424218</v>
       </c>
       <c r="E482">
-        <v>53130.61539447356</v>
+        <v>53130.61539447357</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -8565,16 +8565,16 @@
         <v>482</v>
       </c>
       <c r="B483">
-        <v>9518.346212568344</v>
+        <v>9518.346212568349</v>
       </c>
       <c r="C483">
         <v>14076.99277293795</v>
       </c>
       <c r="D483">
-        <v>31674.8440342422</v>
+        <v>31674.84403424218</v>
       </c>
       <c r="E483">
-        <v>53130.61539447356</v>
+        <v>53130.61539447357</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -8582,16 +8582,16 @@
         <v>483</v>
       </c>
       <c r="B484">
-        <v>9518.346212568344</v>
+        <v>9518.346212568349</v>
       </c>
       <c r="C484">
         <v>14076.99277293795</v>
       </c>
       <c r="D484">
-        <v>31674.8440342422</v>
+        <v>31674.84403424218</v>
       </c>
       <c r="E484">
-        <v>53130.61539447356</v>
+        <v>53130.61539447357</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -8599,7 +8599,7 @@
         <v>484</v>
       </c>
       <c r="B485">
-        <v>9654.45095125646</v>
+        <v>9654.450951256462</v>
       </c>
       <c r="C485">
         <v>14444.54483465078</v>
@@ -8608,7 +8608,7 @@
         <v>32674.45062246286</v>
       </c>
       <c r="E485">
-        <v>54819.24223986104</v>
+        <v>54819.24223986102</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -8616,16 +8616,16 @@
         <v>485</v>
       </c>
       <c r="B486">
-        <v>9306.76921126705</v>
+        <v>9306.769211267056</v>
       </c>
       <c r="C486">
         <v>14063.59535649267</v>
       </c>
       <c r="D486">
-        <v>32001.50212027131</v>
+        <v>32001.50212027132</v>
       </c>
       <c r="E486">
-        <v>53860.20821316058</v>
+        <v>53860.20821316057</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -8633,7 +8633,7 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>8841.113173053465</v>
+        <v>8841.113173053463</v>
       </c>
       <c r="C487">
         <v>12913.314377631</v>
@@ -8642,7 +8642,7 @@
         <v>29263.71277765953</v>
       </c>
       <c r="E487">
-        <v>49279.84608311534</v>
+        <v>49279.8460831153</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -8650,16 +8650,16 @@
         <v>487</v>
       </c>
       <c r="B488">
-        <v>8734.152500433334</v>
+        <v>8734.152500433333</v>
       </c>
       <c r="C488">
         <v>12989.03170037188</v>
       </c>
       <c r="D488">
-        <v>29595.87770645528</v>
+        <v>29595.8777064553</v>
       </c>
       <c r="E488">
-        <v>49791.5803636101</v>
+        <v>49791.58036361008</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -8667,16 +8667,16 @@
         <v>488</v>
       </c>
       <c r="B489">
-        <v>8734.152500433334</v>
+        <v>8734.152500433333</v>
       </c>
       <c r="C489">
         <v>12989.03170037188</v>
       </c>
       <c r="D489">
-        <v>29595.87770645528</v>
+        <v>29595.8777064553</v>
       </c>
       <c r="E489">
-        <v>49791.5803636101</v>
+        <v>49791.58036361008</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -8693,7 +8693,7 @@
         <v>41355.57282016907</v>
       </c>
       <c r="E490">
-        <v>65897.97682590967</v>
+        <v>65897.97682590966</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -8710,7 +8710,7 @@
         <v>41355.57282016907</v>
       </c>
       <c r="E491">
-        <v>65897.97682590967</v>
+        <v>65897.97682590966</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -8727,7 +8727,7 @@
         <v>41355.57282016907</v>
       </c>
       <c r="E492">
-        <v>65897.97682590967</v>
+        <v>65897.97682590966</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -8744,7 +8744,7 @@
         <v>41355.57282016907</v>
       </c>
       <c r="E493">
-        <v>65897.97682590967</v>
+        <v>65897.97682590966</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -8761,7 +8761,7 @@
         <v>41355.57282016907</v>
       </c>
       <c r="E494">
-        <v>65897.97682590967</v>
+        <v>65897.97682590966</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -8772,13 +8772,13 @@
         <v>10602.25234964751</v>
       </c>
       <c r="C495">
-        <v>18153.7304026658</v>
+        <v>18153.73040266579</v>
       </c>
       <c r="D495">
-        <v>41035.7016263021</v>
+        <v>41035.70162630211</v>
       </c>
       <c r="E495">
-        <v>66606.66356268621</v>
+        <v>66606.66356268623</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -8789,10 +8789,10 @@
         <v>13211.07318931158</v>
       </c>
       <c r="C496">
-        <v>21079.77723167304</v>
+        <v>21079.77723167303</v>
       </c>
       <c r="D496">
-        <v>44074.53618666628</v>
+        <v>44074.53618666629</v>
       </c>
       <c r="E496">
         <v>69475.92751213371</v>
@@ -8806,13 +8806,13 @@
         <v>10602.25234964751</v>
       </c>
       <c r="C497">
-        <v>18153.7304026658</v>
+        <v>18153.73040266579</v>
       </c>
       <c r="D497">
-        <v>41035.7016263021</v>
+        <v>41035.70162630211</v>
       </c>
       <c r="E497">
-        <v>66606.66356268621</v>
+        <v>66606.66356268623</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -8820,16 +8820,16 @@
         <v>497</v>
       </c>
       <c r="B498">
-        <v>14143.35839579179</v>
+        <v>14143.35839579178</v>
       </c>
       <c r="C498">
         <v>20406.64107884938</v>
       </c>
       <c r="D498">
-        <v>40106.00950876917</v>
+        <v>40106.00950876918</v>
       </c>
       <c r="E498">
-        <v>62979.22729676851</v>
+        <v>62979.22729676852</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -8837,16 +8837,16 @@
         <v>498</v>
       </c>
       <c r="B499">
-        <v>14143.35839579179</v>
+        <v>14143.35839579178</v>
       </c>
       <c r="C499">
         <v>20406.64107884938</v>
       </c>
       <c r="D499">
-        <v>40106.00950876917</v>
+        <v>40106.00950876918</v>
       </c>
       <c r="E499">
-        <v>62979.22729676851</v>
+        <v>62979.22729676852</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -8854,16 +8854,16 @@
         <v>499</v>
       </c>
       <c r="B500">
-        <v>14143.35839579179</v>
+        <v>14143.35839579178</v>
       </c>
       <c r="C500">
         <v>20406.64107884938</v>
       </c>
       <c r="D500">
-        <v>40106.00950876917</v>
+        <v>40106.00950876918</v>
       </c>
       <c r="E500">
-        <v>62979.22729676851</v>
+        <v>62979.22729676852</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -8871,7 +8871,7 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <v>10539.65653433952</v>
+        <v>10539.65653433953</v>
       </c>
       <c r="C501">
         <v>14829.2666460575</v>
@@ -8880,7 +8880,7 @@
         <v>31365.24967570648</v>
       </c>
       <c r="E501">
-        <v>51690.99013918349</v>
+        <v>51690.99013918348</v>
       </c>
     </row>
   </sheetData>
